--- a/Banco de Dados.xlsx
+++ b/Banco de Dados.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\Nova pasta (2)\SistemasDeApoioADecis-o\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\Nova pasta (2)\audi-ideal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089B02BA-5246-4708-9BC8-A72CC9360290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C313DE-BDF3-4429-A8E3-74245663DA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
-    <sheet name="SemOutlier" sheetId="2" r:id="rId2"/>
-    <sheet name="BancoFinal" sheetId="5" r:id="rId3"/>
+    <sheet name="BancoFinal" sheetId="5" r:id="rId2"/>
+    <sheet name="SemOutlier" sheetId="2" r:id="rId3"/>
     <sheet name="Planilha1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="61">
   <si>
     <t>Modelo</t>
   </si>
@@ -215,6 +215,9 @@
   <si>
     <t>Scores</t>
   </si>
+  <si>
+    <t>Cluster</t>
+  </si>
 </sst>
 </file>
 
@@ -223,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -254,8 +257,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +292,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FFC5D9F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -366,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -396,6 +410,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5946,11 +5964,1837 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AAC8DA-9662-4E7D-AFD4-07047822E583}">
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="8">
+        <v>17353</v>
+      </c>
+      <c r="C2" s="7">
+        <v>125</v>
+      </c>
+      <c r="D2" s="7">
+        <v>26</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="H2" s="7">
+        <v>7.2037200000000006</v>
+      </c>
+      <c r="I2" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J2" s="7">
+        <v>566.5</v>
+      </c>
+      <c r="K2" s="13">
+        <f>B2*Planilha1!$B$2 + C2 * Planilha1!$B$3 + D2 *Planilha1!$B$4 + E2 * Planilha1!$B$5 + G2 * Planilha1!$B$7 + H2 * Planilha1!$B$8 + I2 * Planilha1!$B$10 + J2 * Planilha1!$B$11</f>
+        <v>2166868577.4305701</v>
+      </c>
+      <c r="L2" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="8">
+        <v>16274</v>
+      </c>
+      <c r="C3" s="7">
+        <v>150</v>
+      </c>
+      <c r="D3" s="7">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>21.4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>7.2037200000000006</v>
+      </c>
+      <c r="I3" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J3" s="7">
+        <v>522.5</v>
+      </c>
+      <c r="K3" s="13">
+        <f>B3*Planilha1!$B$2 + C3 * Planilha1!$B$3 + D3 *Planilha1!$B$4 + E3 * Planilha1!$B$5 + G3 * Planilha1!$B$7 + H3 * Planilha1!$B$8 + I3 * Planilha1!$B$10 + J3 * Planilha1!$B$11</f>
+        <v>2032135524.8174899</v>
+      </c>
+      <c r="L3" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8">
+        <v>18724</v>
+      </c>
+      <c r="C4" s="7">
+        <v>150</v>
+      </c>
+      <c r="D4" s="7">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7.2037200000000006</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>492.5</v>
+      </c>
+      <c r="K4" s="13">
+        <f>B4*Planilha1!$B$2 + C4 * Planilha1!$B$3 + D4 *Planilha1!$B$4 + E4 * Planilha1!$B$5 + G4 * Planilha1!$B$7 + H4 * Planilha1!$B$8 + I4 * Planilha1!$B$10 + J4 * Planilha1!$B$11</f>
+        <v>2338065105.2789502</v>
+      </c>
+      <c r="L4" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8">
+        <v>22414</v>
+      </c>
+      <c r="C5" s="7">
+        <v>180</v>
+      </c>
+      <c r="D5" s="7">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="H5" s="7">
+        <v>7.2037200000000006</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="J5" s="7">
+        <v>498</v>
+      </c>
+      <c r="K5" s="13">
+        <f>B5*Planilha1!$B$2 + C5 * Planilha1!$B$3 + D5 *Planilha1!$B$4 + E5 * Planilha1!$B$5 + G5 * Planilha1!$B$7 + H5 * Planilha1!$B$8 + I5 * Planilha1!$B$10 + J5 * Planilha1!$B$11</f>
+        <v>2798834606.3835797</v>
+      </c>
+      <c r="L5" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8">
+        <v>23585</v>
+      </c>
+      <c r="C6" s="7">
+        <v>180</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7.2037200000000006</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J6" s="7">
+        <v>459.5</v>
+      </c>
+      <c r="K6" s="13">
+        <f>B6*Planilha1!$B$2 + C6 * Planilha1!$B$3 + D6 *Planilha1!$B$4 + E6 * Planilha1!$B$5 + G6 * Planilha1!$B$7 + H6 * Planilha1!$B$8 + I6 * Planilha1!$B$10 + J6 * Planilha1!$B$11</f>
+        <v>2945056278.8896704</v>
+      </c>
+      <c r="L6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8">
+        <v>18439</v>
+      </c>
+      <c r="C7" s="7">
+        <v>150</v>
+      </c>
+      <c r="D7" s="7">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>21.4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7.2037200000000006</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J7" s="7">
+        <v>522.5</v>
+      </c>
+      <c r="K7" s="13">
+        <f>B7*Planilha1!$B$2 + C7 * Planilha1!$B$3 + D7 *Planilha1!$B$4 + E7 * Planilha1!$B$5 + G7 * Planilha1!$B$7 + H7 * Planilha1!$B$8 + I7 * Planilha1!$B$10 + J7 * Planilha1!$B$11</f>
+        <v>2302477630.67349</v>
+      </c>
+      <c r="L7" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="8">
+        <v>26010</v>
+      </c>
+      <c r="C8" s="7">
+        <v>180</v>
+      </c>
+      <c r="D8" s="7">
+        <v>21</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7.2037200000000006</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="J8" s="7">
+        <v>498</v>
+      </c>
+      <c r="K8" s="13">
+        <f>B8*Planilha1!$B$2 + C8 * Planilha1!$B$3 + D8 *Planilha1!$B$4 + E8 * Planilha1!$B$5 + G8 * Planilha1!$B$7 + H8 * Planilha1!$B$8 + I8 * Planilha1!$B$10 + J8 * Planilha1!$B$11</f>
+        <v>3247864730.0957799</v>
+      </c>
+      <c r="L8" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8">
+        <v>161489</v>
+      </c>
+      <c r="C9" s="7">
+        <v>150</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6031</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8.0029760000000003</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J9" s="7">
+        <v>647.5</v>
+      </c>
+      <c r="K9" s="13">
+        <f>B9*Planilha1!$B$2 + C9 * Planilha1!$B$3 + D9 *Planilha1!$B$4 + E9 * Planilha1!$B$5 + G9 * Planilha1!$B$7 + H9 * Planilha1!$B$8 + I9 * Planilha1!$B$10 + J9 * Planilha1!$B$11</f>
+        <v>20198610092.553505</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="8">
+        <v>45036</v>
+      </c>
+      <c r="C10" s="7">
+        <v>200</v>
+      </c>
+      <c r="D10" s="7">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1884</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>28.5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7.5647899999999986</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>432</v>
+      </c>
+      <c r="K10" s="13">
+        <f>B10*Planilha1!$B$2 + C10 * Planilha1!$B$3 + D10 *Planilha1!$B$4 + E10 * Planilha1!$B$5 + G10 * Planilha1!$B$7 + H10 * Planilha1!$B$8 + I10 * Planilha1!$B$10 + J10 * Planilha1!$B$11</f>
+        <v>5634117073.1194191</v>
+      </c>
+      <c r="L10" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8">
+        <v>17015</v>
+      </c>
+      <c r="C11" s="7">
+        <v>150</v>
+      </c>
+      <c r="D11" s="7">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>21.4</v>
+      </c>
+      <c r="H11" s="7">
+        <v>7.7621070000000003</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="J11" s="7">
+        <v>651</v>
+      </c>
+      <c r="K11" s="13">
+        <f>B11*Planilha1!$B$2 + C11 * Planilha1!$B$3 + D11 *Planilha1!$B$4 + E11 * Planilha1!$B$5 + G11 * Planilha1!$B$7 + H11 * Planilha1!$B$8 + I11 * Planilha1!$B$10 + J11 * Planilha1!$B$11</f>
+        <v>2124664755.9708431</v>
+      </c>
+      <c r="L11" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="8">
+        <v>45994</v>
+      </c>
+      <c r="C12" s="7">
+        <v>163</v>
+      </c>
+      <c r="D12" s="7">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1868</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
+        <v>8.1263920000000009</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="J12" s="7">
+        <v>717.5</v>
+      </c>
+      <c r="K12" s="13">
+        <f>B12*Planilha1!$B$2 + C12 * Planilha1!$B$3 + D12 *Planilha1!$B$4 + E12 * Planilha1!$B$5 + G12 * Planilha1!$B$7 + H12 * Planilha1!$B$8 + I12 * Planilha1!$B$10 + J12 * Planilha1!$B$11</f>
+        <v>5753653234.7392817</v>
+      </c>
+      <c r="L12" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8">
+        <v>18129</v>
+      </c>
+      <c r="C13" s="7">
+        <v>125</v>
+      </c>
+      <c r="D13" s="7">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7.7621070000000003</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="J13" s="7">
+        <v>620</v>
+      </c>
+      <c r="K13" s="13">
+        <f>B13*Planilha1!$B$2 + C13 * Planilha1!$B$3 + D13 *Planilha1!$B$4 + E13 * Planilha1!$B$5 + G13 * Planilha1!$B$7 + H13 * Planilha1!$B$8 + I13 * Planilha1!$B$10 + J13 * Planilha1!$B$11</f>
+        <v>2263767622.1622529</v>
+      </c>
+      <c r="L13" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="8">
+        <v>22858</v>
+      </c>
+      <c r="C14" s="7">
+        <v>130</v>
+      </c>
+      <c r="D14" s="7">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8.059056</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J14" s="7">
+        <v>682.5</v>
+      </c>
+      <c r="K14" s="13">
+        <f>B14*Planilha1!$B$2 + C14 * Planilha1!$B$3 + D14 *Planilha1!$B$4 + E14 * Planilha1!$B$5 + G14 * Planilha1!$B$7 + H14 * Planilha1!$B$8 + I14 * Planilha1!$B$10 + J14 * Planilha1!$B$11</f>
+        <v>2854275505.6879282</v>
+      </c>
+      <c r="L14" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8">
+        <v>30210</v>
+      </c>
+      <c r="C15" s="7">
+        <v>165</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="H15" s="7">
+        <v>7.7934600000000005</v>
+      </c>
+      <c r="I15" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J15" s="7">
+        <v>583</v>
+      </c>
+      <c r="K15" s="13">
+        <f>B15*Planilha1!$B$2 + C15 * Planilha1!$B$3 + D15 *Planilha1!$B$4 + E15 * Planilha1!$B$5 + G15 * Planilha1!$B$7 + H15 * Planilha1!$B$8 + I15 * Planilha1!$B$10 + J15 * Planilha1!$B$11</f>
+        <v>3772315816.4958315</v>
+      </c>
+      <c r="L15" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8">
+        <v>21283</v>
+      </c>
+      <c r="C16" s="7">
+        <v>193</v>
+      </c>
+      <c r="D16" s="7">
+        <v>27</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>28.5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7.711850000000001</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J16" s="7">
+        <v>617</v>
+      </c>
+      <c r="K16" s="13">
+        <f>B16*Planilha1!$B$2 + C16 * Planilha1!$B$3 + D16 *Planilha1!$B$4 + E16 * Planilha1!$B$5 + G16 * Planilha1!$B$7 + H16 * Planilha1!$B$8 + I16 * Planilha1!$B$10 + J16 * Planilha1!$B$11</f>
+        <v>2657609059.9217753</v>
+      </c>
+      <c r="L16" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="8">
+        <v>57914</v>
+      </c>
+      <c r="C17" s="7">
+        <v>269</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2439</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H17" s="7">
+        <v>8.5876780000000004</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="J17" s="7">
+        <v>611.5</v>
+      </c>
+      <c r="K17" s="13">
+        <f>B17*Planilha1!$B$2 + C17 * Planilha1!$B$3 + D17 *Planilha1!$B$4 + E17 * Planilha1!$B$5 + G17 * Planilha1!$B$7 + H17 * Planilha1!$B$8 + I17 * Planilha1!$B$10 + J17 * Planilha1!$B$11</f>
+        <v>7245279006.6256294</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>106177</v>
+      </c>
+      <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4463</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>32.6</v>
+      </c>
+      <c r="H18" s="7">
+        <v>8.705292</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="J18" s="7">
+        <v>683</v>
+      </c>
+      <c r="K18" s="13">
+        <f>B18*Planilha1!$B$2 + C18 * Planilha1!$B$3 + D18 *Planilha1!$B$4 + E18 * Planilha1!$B$5 + G18 * Planilha1!$B$7 + H18 * Planilha1!$B$8 + I18 * Planilha1!$B$10 + J18 * Planilha1!$B$11</f>
+        <v>13283111305.09473</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8">
+        <v>206956</v>
+      </c>
+      <c r="C19" s="7">
+        <v>252</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6</v>
+      </c>
+      <c r="E19" s="8">
+        <v>8707</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H19" s="7">
+        <v>8.7229189999999992</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6</v>
+      </c>
+      <c r="J19" s="7">
+        <v>614.5</v>
+      </c>
+      <c r="K19" s="13">
+        <f>B19*Planilha1!$B$2 + C19 * Planilha1!$B$3 + D19 *Planilha1!$B$4 + E19 * Planilha1!$B$5 + G19 * Planilha1!$B$7 + H19 * Planilha1!$B$8 + I19 * Planilha1!$B$10 + J19 * Planilha1!$B$11</f>
+        <v>25890945859.562416</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8">
+        <v>108031</v>
+      </c>
+      <c r="C20" s="7">
+        <v>170</v>
+      </c>
+      <c r="D20" s="7">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4268</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4</v>
+      </c>
+      <c r="G20" s="7">
+        <v>32.4</v>
+      </c>
+      <c r="H20" s="7">
+        <v>8.7360480000000003</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="J20" s="7">
+        <v>630</v>
+      </c>
+      <c r="K20" s="13">
+        <f>B20*Planilha1!$B$2 + C20 * Planilha1!$B$3 + D20 *Planilha1!$B$4 + E20 * Planilha1!$B$5 + G20 * Planilha1!$B$7 + H20 * Planilha1!$B$8 + I20 * Planilha1!$B$10 + J20 * Planilha1!$B$11</f>
+        <v>13513532033.553373</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="8">
+        <v>26324</v>
+      </c>
+      <c r="C21" s="7">
+        <v>165</v>
+      </c>
+      <c r="D21" s="7">
+        <v>26</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>5</v>
+      </c>
+      <c r="G21" s="7">
+        <v>23.45</v>
+      </c>
+      <c r="H21" s="7">
+        <v>8.6807600000000011</v>
+      </c>
+      <c r="I21" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J21" s="7">
+        <v>714</v>
+      </c>
+      <c r="K21" s="13">
+        <f>B21*Planilha1!$B$2 + C21 * Planilha1!$B$3 + D21 *Planilha1!$B$4 + E21 * Planilha1!$B$5 + G21 * Planilha1!$B$7 + H21 * Planilha1!$B$8 + I21 * Planilha1!$B$10 + J21 * Planilha1!$B$11</f>
+        <v>3287074673.3344827</v>
+      </c>
+      <c r="L21" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="8">
+        <v>30386</v>
+      </c>
+      <c r="C22" s="7">
+        <v>165</v>
+      </c>
+      <c r="D22" s="7">
+        <v>24</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5</v>
+      </c>
+      <c r="G22" s="7">
+        <v>23.45</v>
+      </c>
+      <c r="H22" s="7">
+        <v>8.6807600000000011</v>
+      </c>
+      <c r="I22" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J22" s="7">
+        <v>714</v>
+      </c>
+      <c r="K22" s="13">
+        <f>B22*Planilha1!$B$2 + C22 * Planilha1!$B$3 + D22 *Planilha1!$B$4 + E22 * Planilha1!$B$5 + G22 * Planilha1!$B$7 + H22 * Planilha1!$B$8 + I22 * Planilha1!$B$10 + J22 * Planilha1!$B$11</f>
+        <v>3794293904.686883</v>
+      </c>
+      <c r="L22" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="8">
+        <v>27219</v>
+      </c>
+      <c r="C23" s="7">
+        <v>165</v>
+      </c>
+      <c r="D23" s="7">
+        <v>24</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5</v>
+      </c>
+      <c r="G23" s="7">
+        <v>23.9</v>
+      </c>
+      <c r="H23" s="7">
+        <v>8.6807600000000011</v>
+      </c>
+      <c r="I23" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="J23" s="7">
+        <v>642</v>
+      </c>
+      <c r="K23" s="13">
+        <f>B23*Planilha1!$B$2 + C23 * Planilha1!$B$3 + D23 *Planilha1!$B$4 + E23 * Planilha1!$B$5 + G23 * Planilha1!$B$7 + H23 * Planilha1!$B$8 + I23 * Planilha1!$B$10 + J23 * Planilha1!$B$11</f>
+        <v>3398832144.8409576</v>
+      </c>
+      <c r="L23" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="8">
+        <v>25246</v>
+      </c>
+      <c r="C24" s="7">
+        <v>174</v>
+      </c>
+      <c r="D24" s="7">
+        <v>26</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>29</v>
+      </c>
+      <c r="H24" s="7">
+        <v>8.6855560000000001</v>
+      </c>
+      <c r="I24" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J24" s="7">
+        <v>612.5</v>
+      </c>
+      <c r="K24" s="13">
+        <f>B24*Planilha1!$B$2 + C24 * Planilha1!$B$3 + D24 *Planilha1!$B$4 + E24 * Planilha1!$B$5 + G24 * Planilha1!$B$7 + H24 * Planilha1!$B$8 + I24 * Planilha1!$B$10 + J24 * Planilha1!$B$11</f>
+        <v>3152465207.0550098</v>
+      </c>
+      <c r="L24" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8">
+        <v>47111</v>
+      </c>
+      <c r="C25" s="7">
+        <v>218</v>
+      </c>
+      <c r="D25" s="7">
+        <v>19</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2888</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>29.57</v>
+      </c>
+      <c r="H25" s="7">
+        <v>9.1507149999999999</v>
+      </c>
+      <c r="I25" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J25" s="7">
+        <v>675.5</v>
+      </c>
+      <c r="K25" s="13">
+        <f>B25*Planilha1!$B$2 + C25 * Planilha1!$B$3 + D25 *Planilha1!$B$4 + E25 * Planilha1!$B$5 + G25 * Planilha1!$B$7 + H25 * Planilha1!$B$8 + I25 * Planilha1!$B$10 + J25 * Planilha1!$B$11</f>
+        <v>5898812988.8965263</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="8">
+        <v>140955</v>
+      </c>
+      <c r="C26" s="7">
+        <v>300</v>
+      </c>
+      <c r="D26" s="7">
+        <v>11</v>
+      </c>
+      <c r="E26" s="8">
+        <v>5682</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7">
+        <v>44.9</v>
+      </c>
+      <c r="H26" s="7">
+        <v>9.2313240000000008</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="J26" s="7">
+        <v>675</v>
+      </c>
+      <c r="K26" s="13">
+        <f>B26*Planilha1!$B$2 + C26 * Planilha1!$B$3 + D26 *Planilha1!$B$4 + E26 * Planilha1!$B$5 + G26 * Planilha1!$B$7 + H26 * Planilha1!$B$8 + I26 * Planilha1!$B$10 + J26 * Planilha1!$B$11</f>
+        <v>17632608538.082325</v>
+      </c>
+      <c r="L26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="8">
+        <v>101248</v>
+      </c>
+      <c r="C27" s="7">
+        <v>300</v>
+      </c>
+      <c r="D27" s="7">
+        <v>13</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4102</v>
+      </c>
+      <c r="F27" s="7">
+        <v>5</v>
+      </c>
+      <c r="G27" s="7">
+        <v>44.9</v>
+      </c>
+      <c r="H27" s="7">
+        <v>9.2107100000000006</v>
+      </c>
+      <c r="I27" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="J27" s="7">
+        <v>690</v>
+      </c>
+      <c r="K27" s="13">
+        <f>B27*Planilha1!$B$2 + C27 * Planilha1!$B$3 + D27 *Planilha1!$B$4 + E27 * Planilha1!$B$5 + G27 * Planilha1!$B$7 + H27 * Planilha1!$B$8 + I27 * Planilha1!$B$10 + J27 * Planilha1!$B$11</f>
+        <v>12665626563.671076</v>
+      </c>
+      <c r="L27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="8">
+        <v>137038</v>
+      </c>
+      <c r="C28" s="7">
+        <v>300</v>
+      </c>
+      <c r="D28" s="7">
+        <v>11</v>
+      </c>
+      <c r="E28" s="8">
+        <v>5495</v>
+      </c>
+      <c r="F28" s="7">
+        <v>5</v>
+      </c>
+      <c r="G28" s="7">
+        <v>44.9</v>
+      </c>
+      <c r="H28" s="7">
+        <v>9.2107100000000006</v>
+      </c>
+      <c r="I28" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="J28" s="7">
+        <v>690</v>
+      </c>
+      <c r="K28" s="13">
+        <f>B28*Planilha1!$B$2 + C28 * Planilha1!$B$3 + D28 *Planilha1!$B$4 + E28 * Planilha1!$B$5 + G28 * Planilha1!$B$7 + H28 * Planilha1!$B$8 + I28 * Planilha1!$B$10 + J28 * Planilha1!$B$11</f>
+        <v>17142454498.511774</v>
+      </c>
+      <c r="L28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8">
+        <v>349389</v>
+      </c>
+      <c r="C29" s="7">
+        <v>340</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="8">
+        <v>19213</v>
+      </c>
+      <c r="F29" s="7">
+        <v>5</v>
+      </c>
+      <c r="G29" s="7">
+        <v>51</v>
+      </c>
+      <c r="H29" s="7">
+        <v>9.3149540000000002</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J29" s="7">
+        <v>679</v>
+      </c>
+      <c r="K29" s="13">
+        <f>B29*Planilha1!$B$2 + C29 * Planilha1!$B$3 + D29 *Planilha1!$B$4 + E29 * Planilha1!$B$5 + G29 * Planilha1!$B$7 + H29 * Planilha1!$B$8 + I29 * Planilha1!$B$10 + J29 * Planilha1!$B$11</f>
+        <v>43734949541.803261</v>
+      </c>
+      <c r="L29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="8">
+        <v>185115</v>
+      </c>
+      <c r="C30" s="7">
+        <v>252</v>
+      </c>
+      <c r="D30" s="7">
+        <v>9</v>
+      </c>
+      <c r="E30" s="8">
+        <v>8076</v>
+      </c>
+      <c r="F30" s="7">
+        <v>4</v>
+      </c>
+      <c r="G30" s="7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H30" s="7">
+        <v>9.5053140000000003</v>
+      </c>
+      <c r="I30" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="J30" s="7">
+        <v>668</v>
+      </c>
+      <c r="K30" s="13">
+        <f>B30*Planilha1!$B$2 + C30 * Planilha1!$B$3 + D30 *Planilha1!$B$4 + E30 * Planilha1!$B$5 + G30 * Planilha1!$B$7 + H30 * Planilha1!$B$8 + I30 * Planilha1!$B$10 + J30 * Planilha1!$B$11</f>
+        <v>23160162573.591789</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="8">
+        <v>105890</v>
+      </c>
+      <c r="C31" s="7">
+        <v>150</v>
+      </c>
+      <c r="D31" s="7">
+        <v>8</v>
+      </c>
+      <c r="E31" s="8">
+        <v>4206</v>
+      </c>
+      <c r="F31" s="7">
+        <v>5</v>
+      </c>
+      <c r="G31" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8.0344280000000001</v>
+      </c>
+      <c r="I31" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="J31" s="7">
+        <v>707.5</v>
+      </c>
+      <c r="K31" s="13">
+        <f>B31*Planilha1!$B$2 + C31 * Planilha1!$B$3 + D31 *Planilha1!$B$4 + E31 * Planilha1!$B$5 + G31 * Planilha1!$B$7 + H31 * Planilha1!$B$8 + I31 * Planilha1!$B$10 + J31 * Planilha1!$B$11</f>
+        <v>13245841212.601503</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="8">
+        <v>129711</v>
+      </c>
+      <c r="C32" s="7">
+        <v>150</v>
+      </c>
+      <c r="D32" s="7">
+        <v>6</v>
+      </c>
+      <c r="E32" s="8">
+        <v>5067</v>
+      </c>
+      <c r="F32" s="7">
+        <v>5</v>
+      </c>
+      <c r="G32" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="H32" s="7">
+        <v>8.0344280000000001</v>
+      </c>
+      <c r="I32" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="J32" s="7">
+        <v>707.5</v>
+      </c>
+      <c r="K32" s="13">
+        <f>B32*Planilha1!$B$2 + C32 * Planilha1!$B$3 + D32 *Planilha1!$B$4 + E32 * Planilha1!$B$5 + G32 * Planilha1!$B$7 + H32 * Planilha1!$B$8 + I32 * Planilha1!$B$10 + J32 * Planilha1!$B$11</f>
+        <v>16225146580.372103</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="8">
+        <v>238154</v>
+      </c>
+      <c r="C33" s="7">
+        <v>150</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="8">
+        <v>10158</v>
+      </c>
+      <c r="F33" s="7">
+        <v>5</v>
+      </c>
+      <c r="G33" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="H33" s="7">
+        <v>8.2909159999999993</v>
+      </c>
+      <c r="I33" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J33" s="7">
+        <v>588.5</v>
+      </c>
+      <c r="K33" s="13">
+        <f>B33*Planilha1!$B$2 + C33 * Planilha1!$B$3 + D33 *Planilha1!$B$4 + E33 * Planilha1!$B$5 + G33 * Planilha1!$B$7 + H33 * Planilha1!$B$8 + I33 * Planilha1!$B$10 + J33 * Planilha1!$B$11</f>
+        <v>29794691128.65184</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="8">
+        <v>153608</v>
+      </c>
+      <c r="C34" s="7">
+        <v>272</v>
+      </c>
+      <c r="D34" s="7">
+        <v>9</v>
+      </c>
+      <c r="E34" s="8">
+        <v>6308</v>
+      </c>
+      <c r="F34" s="7">
+        <v>5</v>
+      </c>
+      <c r="G34" s="7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H34" s="7">
+        <v>8.7858419999999988</v>
+      </c>
+      <c r="I34" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="J34" s="7">
+        <v>589</v>
+      </c>
+      <c r="K34" s="13">
+        <f>B34*Planilha1!$B$2 + C34 * Planilha1!$B$3 + D34 *Planilha1!$B$4 + E34 * Planilha1!$B$5 + G34 * Planilha1!$B$7 + H34 * Planilha1!$B$8 + I34 * Planilha1!$B$10 + J34 * Planilha1!$B$11</f>
+        <v>19216062831.345264</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="8">
+        <v>518430</v>
+      </c>
+      <c r="C35" s="7">
+        <v>340</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>20969</v>
+      </c>
+      <c r="F35" s="7">
+        <v>7</v>
+      </c>
+      <c r="G35" s="7">
+        <v>51</v>
+      </c>
+      <c r="H35" s="7">
+        <v>9.9741099999999996</v>
+      </c>
+      <c r="I35" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="J35" s="7">
+        <v>646.5</v>
+      </c>
+      <c r="K35" s="13">
+        <f>B35*Planilha1!$B$2 + C35 * Planilha1!$B$3 + D35 *Planilha1!$B$4 + E35 * Planilha1!$B$5 + G35 * Planilha1!$B$7 + H35 * Planilha1!$B$8 + I35 * Planilha1!$B$10 + J35 * Planilha1!$B$11</f>
+        <v>64852761022.463287</v>
+      </c>
+      <c r="L35" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="8">
+        <v>436302</v>
+      </c>
+      <c r="C36" s="7">
+        <v>340</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5</v>
+      </c>
+      <c r="E36" s="8">
+        <v>16804</v>
+      </c>
+      <c r="F36" s="7">
+        <v>7</v>
+      </c>
+      <c r="G36" s="7">
+        <v>51</v>
+      </c>
+      <c r="H36" s="7">
+        <v>9.9741099999999996</v>
+      </c>
+      <c r="I36" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="J36" s="7">
+        <v>595</v>
+      </c>
+      <c r="K36" s="13">
+        <f>B36*Planilha1!$B$2 + C36 * Planilha1!$B$3 + D36 *Planilha1!$B$4 + E36 * Planilha1!$B$5 + G36 * Planilha1!$B$7 + H36 * Planilha1!$B$8 + I36 * Planilha1!$B$10 + J36 * Planilha1!$B$11</f>
+        <v>54574306368.746239</v>
+      </c>
+      <c r="L36" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1316250</v>
+      </c>
+      <c r="C37" s="10">
+        <v>610</v>
+      </c>
+      <c r="D37" s="10">
+        <v>8</v>
+      </c>
+      <c r="E37" s="9">
+        <v>50749</v>
+      </c>
+      <c r="F37" s="10">
+        <v>2</v>
+      </c>
+      <c r="G37" s="10">
+        <v>56.1</v>
+      </c>
+      <c r="H37" s="10">
+        <v>8.5864399999999996</v>
+      </c>
+      <c r="I37" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="J37" s="10">
+        <v>553.5</v>
+      </c>
+      <c r="K37" s="14">
+        <f>B37*Planilha1!$B$2 + C37 * Planilha1!$B$3 + D37 *Planilha1!$B$4 + E37 * Planilha1!$B$5 + G37 * Planilha1!$B$7 + H37 * Planilha1!$B$8 + I37 * Planilha1!$B$10 + J37 * Planilha1!$B$11</f>
+        <v>164641803372.40668</v>
+      </c>
+      <c r="L37" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="9">
+        <v>894310</v>
+      </c>
+      <c r="C38" s="10">
+        <v>525</v>
+      </c>
+      <c r="D38" s="10">
+        <v>12</v>
+      </c>
+      <c r="E38" s="9">
+        <v>35185</v>
+      </c>
+      <c r="F38" s="10">
+        <v>2</v>
+      </c>
+      <c r="G38" s="10">
+        <v>54.1</v>
+      </c>
+      <c r="H38" s="10">
+        <v>8.5647600000000015</v>
+      </c>
+      <c r="I38" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="J38" s="10">
+        <v>460</v>
+      </c>
+      <c r="K38" s="14">
+        <f>B38*Planilha1!$B$2 + C38 * Planilha1!$B$3 + D38 *Planilha1!$B$4 + E38 * Planilha1!$B$5 + G38 * Planilha1!$B$7 + H38 * Planilha1!$B$8 + I38 * Planilha1!$B$10 + J38 * Planilha1!$B$11</f>
+        <v>111867790862.005</v>
+      </c>
+      <c r="L38" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="9">
+        <v>1204150</v>
+      </c>
+      <c r="C39" s="10">
+        <v>630</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>45630</v>
+      </c>
+      <c r="F39" s="10">
+        <v>4</v>
+      </c>
+      <c r="G39" s="10">
+        <v>86.7</v>
+      </c>
+      <c r="H39" s="10">
+        <v>9.7452450000000006</v>
+      </c>
+      <c r="I39" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="J39" s="10">
+        <v>500</v>
+      </c>
+      <c r="K39" s="14">
+        <f>B39*Planilha1!$B$2 + C39 * Planilha1!$B$3 + D39 *Planilha1!$B$4 + E39 * Planilha1!$B$5 + G39 * Planilha1!$B$7 + H39 * Planilha1!$B$8 + I39 * Planilha1!$B$10 + J39 * Planilha1!$B$11</f>
+        <v>150615455748.34927</v>
+      </c>
+      <c r="L39" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="8">
+        <v>211467</v>
+      </c>
+      <c r="C40" s="7">
+        <v>354</v>
+      </c>
+      <c r="D40" s="7">
+        <v>9</v>
+      </c>
+      <c r="E40" s="8">
+        <v>8714</v>
+      </c>
+      <c r="F40" s="7">
+        <v>5</v>
+      </c>
+      <c r="G40" s="7">
+        <v>47.9</v>
+      </c>
+      <c r="H40" s="7">
+        <v>8.8746840000000002</v>
+      </c>
+      <c r="I40" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J40" s="7">
+        <v>626.5</v>
+      </c>
+      <c r="K40" s="13">
+        <f>B40*Planilha1!$B$2 + C40 * Planilha1!$B$3 + D40 *Planilha1!$B$4 + E40 * Planilha1!$B$5 + G40 * Planilha1!$B$7 + H40 * Planilha1!$B$8 + I40 * Planilha1!$B$10 + J40 * Planilha1!$B$11</f>
+        <v>26454275800.382915</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="8">
+        <v>322651</v>
+      </c>
+      <c r="C41" s="7">
+        <v>354</v>
+      </c>
+      <c r="D41" s="7">
+        <v>6</v>
+      </c>
+      <c r="E41" s="8">
+        <v>13412</v>
+      </c>
+      <c r="F41" s="7">
+        <v>5</v>
+      </c>
+      <c r="G41" s="7">
+        <v>51</v>
+      </c>
+      <c r="H41" s="7">
+        <v>8.8422030000000014</v>
+      </c>
+      <c r="I41" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="J41" s="7">
+        <v>570.5</v>
+      </c>
+      <c r="K41" s="13">
+        <f>B41*Planilha1!$B$2 + C41 * Planilha1!$B$3 + D41 *Planilha1!$B$4 + E41 * Planilha1!$B$5 + G41 * Planilha1!$B$7 + H41 * Planilha1!$B$8 + I41 * Planilha1!$B$10 + J41 * Planilha1!$B$11</f>
+        <v>40363899964.466644</v>
+      </c>
+      <c r="L41" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="8">
+        <v>245979</v>
+      </c>
+      <c r="C42" s="7">
+        <v>333</v>
+      </c>
+      <c r="D42" s="7">
+        <v>12</v>
+      </c>
+      <c r="E42" s="8">
+        <v>9949</v>
+      </c>
+      <c r="F42" s="7">
+        <v>4</v>
+      </c>
+      <c r="G42" s="7">
+        <v>44.9</v>
+      </c>
+      <c r="H42" s="7">
+        <v>8.6025600000000004</v>
+      </c>
+      <c r="I42" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="J42" s="7">
+        <v>580</v>
+      </c>
+      <c r="K42" s="13">
+        <f>B42*Planilha1!$B$2 + C42 * Planilha1!$B$3 + D42 *Planilha1!$B$4 + E42 * Planilha1!$B$5 + G42 * Planilha1!$B$7 + H42 * Planilha1!$B$8 + I42 * Planilha1!$B$10 + J42 * Planilha1!$B$11</f>
+        <v>30770639645.563625</v>
+      </c>
+      <c r="L42" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="8">
+        <v>45220</v>
+      </c>
+      <c r="C43" s="7">
+        <v>300</v>
+      </c>
+      <c r="D43" s="7">
+        <v>24</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>5</v>
+      </c>
+      <c r="G43" s="7">
+        <v>42.8</v>
+      </c>
+      <c r="H43" s="7">
+        <v>8.9410500000000006</v>
+      </c>
+      <c r="I43" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="J43" s="7">
+        <v>544</v>
+      </c>
+      <c r="K43" s="13">
+        <f>B43*Planilha1!$B$2 + C43 * Planilha1!$B$3 + D43 *Planilha1!$B$4 + E43 * Planilha1!$B$5 + G43 * Planilha1!$B$7 + H43 * Planilha1!$B$8 + I43 * Planilha1!$B$10 + J43 * Planilha1!$B$11</f>
+        <v>5646611269.6103296</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="8">
+        <v>58239</v>
+      </c>
+      <c r="C44" s="7">
+        <v>225</v>
+      </c>
+      <c r="D44" s="7">
+        <v>26</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>4</v>
+      </c>
+      <c r="G44" s="7">
+        <v>23.96</v>
+      </c>
+      <c r="H44" s="7">
+        <v>7.128324000000001</v>
+      </c>
+      <c r="I44" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="J44" s="7">
+        <v>583</v>
+      </c>
+      <c r="K44" s="13">
+        <f>B44*Planilha1!$B$2 + C44 * Planilha1!$B$3 + D44 *Planilha1!$B$4 + E44 * Planilha1!$B$5 + G44 * Planilha1!$B$7 + H44 * Planilha1!$B$8 + I44 * Planilha1!$B$10 + J44 * Planilha1!$B$11</f>
+        <v>7272281350.3501558</v>
+      </c>
+      <c r="L44" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="8">
+        <v>309303</v>
+      </c>
+      <c r="C45" s="7">
+        <v>230</v>
+      </c>
+      <c r="D45" s="7">
+        <v>7</v>
+      </c>
+      <c r="E45" s="8">
+        <v>12896</v>
+      </c>
+      <c r="F45" s="7">
+        <v>2</v>
+      </c>
+      <c r="G45" s="7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H45" s="7">
+        <v>7.6522639999999997</v>
+      </c>
+      <c r="I45" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="J45" s="7">
+        <v>570</v>
+      </c>
+      <c r="K45" s="13">
+        <f>B45*Planilha1!$B$2 + C45 * Planilha1!$B$3 + D45 *Planilha1!$B$4 + E45 * Planilha1!$B$5 + G45 * Planilha1!$B$7 + H45 * Planilha1!$B$8 + I45 * Planilha1!$B$10 + J45 * Planilha1!$B$11</f>
+        <v>38694265134.669121</v>
+      </c>
+      <c r="L45" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="8">
+        <v>294238</v>
+      </c>
+      <c r="C46" s="7">
+        <v>286</v>
+      </c>
+      <c r="D46" s="7">
+        <v>9</v>
+      </c>
+      <c r="E46" s="8">
+        <v>11350</v>
+      </c>
+      <c r="F46" s="7">
+        <v>4</v>
+      </c>
+      <c r="G46" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="H46" s="7">
+        <v>7.6779120000000001</v>
+      </c>
+      <c r="I46" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="J46" s="7">
+        <v>547.5</v>
+      </c>
+      <c r="K46" s="13">
+        <f>B46*Planilha1!$B$2 + C46 * Planilha1!$B$3 + D46 *Planilha1!$B$4 + E46 * Planilha1!$B$5 + G46 * Planilha1!$B$7 + H46 * Planilha1!$B$8 + I46 * Planilha1!$B$10 + J46 * Planilha1!$B$11</f>
+        <v>36804505046.84066</v>
+      </c>
+      <c r="L46" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
+    <sortCondition ref="A2:A46"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A1E3A8-C70A-4935-9ECD-0B43E4E0F9C7}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6002,144 +7846,144 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B2" s="8">
-        <v>47111</v>
+        <v>17353</v>
       </c>
       <c r="C2" s="7">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="D2" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="7">
-        <v>2888</v>
+        <v>0</v>
       </c>
       <c r="F2" s="7">
         <v>5</v>
       </c>
       <c r="G2" s="7">
-        <v>29.57</v>
+        <v>17.3</v>
       </c>
       <c r="H2" s="7">
-        <v>9.1507149999999999</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="I2" s="7">
-        <v>8.1999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J2" s="7">
-        <v>675.5</v>
+        <v>566.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8">
-        <v>106177</v>
+        <v>16274</v>
       </c>
       <c r="C3" s="7">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D3" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7">
-        <v>4463</v>
+        <v>0</v>
       </c>
       <c r="F3" s="7">
         <v>5</v>
       </c>
       <c r="G3" s="7">
-        <v>32.6</v>
+        <v>21.4</v>
       </c>
       <c r="H3" s="7">
-        <v>8.705292</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="I3" s="7">
-        <v>7.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J3" s="7">
-        <v>683</v>
+        <v>522.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8">
-        <v>153608</v>
+        <v>18724</v>
       </c>
       <c r="C4" s="7">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="D4" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7">
-        <v>6308</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
         <v>5</v>
       </c>
       <c r="G4" s="7">
-        <v>40.799999999999997</v>
+        <v>17.3</v>
       </c>
       <c r="H4" s="7">
-        <v>8.7858419999999988</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="I4" s="7">
-        <v>5.9</v>
+        <v>11.3</v>
       </c>
       <c r="J4" s="7">
-        <v>589</v>
+        <v>492.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B5" s="8">
-        <v>105890</v>
+        <v>23585</v>
       </c>
       <c r="C5" s="7">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D5" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7">
-        <v>4206</v>
+        <v>0</v>
       </c>
       <c r="F5" s="7">
         <v>5</v>
       </c>
       <c r="G5" s="7">
-        <v>25.5</v>
+        <v>23.9</v>
       </c>
       <c r="H5" s="7">
-        <v>8.0344280000000001</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="I5" s="7">
-        <v>8.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J5" s="7">
-        <v>707.5</v>
+        <v>459.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8">
-        <v>18129</v>
+        <v>22414</v>
       </c>
       <c r="C6" s="7">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="D6" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -6148,62 +7992,62 @@
         <v>5</v>
       </c>
       <c r="G6" s="7">
-        <v>17.600000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="H6" s="7">
-        <v>7.7621070000000003</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="I6" s="7">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="J6" s="7">
-        <v>620</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B7" s="8">
-        <v>185115</v>
+        <v>18439</v>
       </c>
       <c r="C7" s="7">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="D7" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E7" s="7">
-        <v>8076</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="7">
-        <v>37.700000000000003</v>
+        <v>21.4</v>
       </c>
       <c r="H7" s="7">
-        <v>9.5053140000000003</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="I7" s="7">
-        <v>6.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J7" s="7">
-        <v>668</v>
+        <v>522.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B8" s="8">
-        <v>30210</v>
+        <v>26010</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -6212,222 +8056,222 @@
         <v>5</v>
       </c>
       <c r="G8" s="7">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="H8" s="7">
-        <v>7.7934600000000005</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="I8" s="7">
-        <v>9.8000000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="J8" s="7">
-        <v>583</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="8">
-        <v>206956</v>
+        <v>161489</v>
       </c>
       <c r="C9" s="7">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="D9" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="7">
-        <v>8707</v>
+        <v>6031</v>
       </c>
       <c r="F9" s="7">
         <v>5</v>
       </c>
       <c r="G9" s="7">
-        <v>37.700000000000003</v>
+        <v>25.5</v>
       </c>
       <c r="H9" s="7">
-        <v>8.7229189999999992</v>
+        <v>8.0029760000000003</v>
       </c>
       <c r="I9" s="7">
-        <v>6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J9" s="7">
-        <v>614.5</v>
+        <v>647.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B10" s="8">
-        <v>18724</v>
+        <v>45036</v>
       </c>
       <c r="C10" s="7">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D10" s="7">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>1884</v>
       </c>
       <c r="F10" s="7">
         <v>5</v>
       </c>
       <c r="G10" s="7">
-        <v>17.3</v>
+        <v>28.5</v>
       </c>
       <c r="H10" s="7">
-        <v>7.2037200000000006</v>
+        <v>7.5647899999999986</v>
       </c>
       <c r="I10" s="7">
-        <v>11.3</v>
+        <v>7.2</v>
       </c>
       <c r="J10" s="7">
-        <v>492.5</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B11" s="8">
-        <v>211467</v>
+        <v>17015</v>
       </c>
       <c r="C11" s="7">
-        <v>354</v>
+        <v>150</v>
       </c>
       <c r="D11" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E11" s="7">
-        <v>8714</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7">
         <v>5</v>
       </c>
       <c r="G11" s="7">
-        <v>47.9</v>
+        <v>21.4</v>
       </c>
       <c r="H11" s="7">
-        <v>8.8746840000000002</v>
+        <v>7.7621070000000003</v>
       </c>
       <c r="I11" s="7">
-        <v>9.6999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="J11" s="7">
-        <v>626.5</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B12" s="8">
-        <v>23585</v>
+        <v>45994</v>
       </c>
       <c r="C12" s="7">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D12" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F12" s="7">
         <v>5</v>
       </c>
       <c r="G12" s="7">
-        <v>23.9</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>7.2037200000000006</v>
+        <v>8.1263920000000009</v>
       </c>
       <c r="I12" s="7">
-        <v>8.3000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="J12" s="7">
-        <v>459.5</v>
+        <v>717.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8">
-        <v>518430</v>
+        <v>18129</v>
       </c>
       <c r="C13" s="7">
-        <v>340</v>
+        <v>125</v>
       </c>
       <c r="D13" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E13" s="7">
-        <v>20969</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" s="7">
-        <v>51</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H13" s="7">
-        <v>9.9741099999999996</v>
+        <v>7.7621070000000003</v>
       </c>
       <c r="I13" s="7">
-        <v>5.9</v>
+        <v>10.5</v>
       </c>
       <c r="J13" s="7">
-        <v>646.5</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B14" s="8">
-        <v>322651</v>
+        <v>22858</v>
       </c>
       <c r="C14" s="7">
-        <v>354</v>
+        <v>130</v>
       </c>
       <c r="D14" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7">
-        <v>13412</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7">
         <v>5</v>
       </c>
       <c r="G14" s="7">
-        <v>51</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H14" s="7">
-        <v>8.8422030000000014</v>
+        <v>8.059056</v>
       </c>
       <c r="I14" s="7">
-        <v>5.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J14" s="7">
-        <v>570.5</v>
+        <v>682.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8">
-        <v>25246</v>
+        <v>30210</v>
       </c>
       <c r="C15" s="7">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D15" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>
@@ -6436,30 +8280,30 @@
         <v>5</v>
       </c>
       <c r="G15" s="7">
-        <v>29</v>
+        <v>23.4</v>
       </c>
       <c r="H15" s="7">
-        <v>8.6855560000000001</v>
+        <v>7.7934600000000005</v>
       </c>
       <c r="I15" s="7">
-        <v>8.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J15" s="7">
-        <v>612.5</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8">
-        <v>45220</v>
+        <v>21283</v>
       </c>
       <c r="C16" s="7">
-        <v>300</v>
+        <v>193</v>
       </c>
       <c r="D16" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
@@ -6468,190 +8312,190 @@
         <v>5</v>
       </c>
       <c r="G16" s="7">
-        <v>42.8</v>
+        <v>28.5</v>
       </c>
       <c r="H16" s="7">
-        <v>8.9410500000000006</v>
+        <v>7.711850000000001</v>
       </c>
       <c r="I16" s="7">
-        <v>5.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J16" s="7">
-        <v>544</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B17" s="8">
-        <v>108031</v>
+        <v>57914</v>
       </c>
       <c r="C17" s="7">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="D17" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E17" s="7">
-        <v>4268</v>
+        <v>2439</v>
       </c>
       <c r="F17" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="7">
-        <v>32.4</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="H17" s="7">
-        <v>8.7360480000000003</v>
+        <v>8.5876780000000004</v>
       </c>
       <c r="I17" s="7">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="J17" s="7">
-        <v>630</v>
+        <v>611.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8">
-        <v>245979</v>
+        <v>106177</v>
       </c>
       <c r="C18" s="7">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7">
-        <v>9949</v>
+        <v>4463</v>
       </c>
       <c r="F18" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="7">
-        <v>44.9</v>
+        <v>32.6</v>
       </c>
       <c r="H18" s="7">
-        <v>8.6025600000000004</v>
+        <v>8.705292</v>
       </c>
       <c r="I18" s="7">
-        <v>5.4</v>
+        <v>7.3</v>
       </c>
       <c r="J18" s="7">
-        <v>580</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>349389</v>
+        <v>206956</v>
       </c>
       <c r="C19" s="7">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="D19" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="7">
-        <v>19213</v>
+        <v>8707</v>
       </c>
       <c r="F19" s="7">
         <v>5</v>
       </c>
       <c r="G19" s="7">
-        <v>51</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="H19" s="7">
-        <v>9.3149540000000002</v>
+        <v>8.7229189999999992</v>
       </c>
       <c r="I19" s="7">
-        <v>5.0999999999999996</v>
+        <v>6</v>
       </c>
       <c r="J19" s="7">
-        <v>679</v>
+        <v>614.5</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" s="8">
-        <v>17015</v>
+        <v>108031</v>
       </c>
       <c r="C20" s="7">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D20" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
+        <v>4268</v>
       </c>
       <c r="F20" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="7">
-        <v>21.4</v>
+        <v>32.4</v>
       </c>
       <c r="H20" s="7">
-        <v>7.7621070000000003</v>
+        <v>8.7360480000000003</v>
       </c>
       <c r="I20" s="7">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J20" s="7">
-        <v>651</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="8">
-        <v>309303</v>
+        <v>26324</v>
       </c>
       <c r="C21" s="7">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="D21" s="7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E21" s="7">
-        <v>12896</v>
+        <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G21" s="7">
-        <v>37.700000000000003</v>
+        <v>23.45</v>
       </c>
       <c r="H21" s="7">
-        <v>7.6522639999999997</v>
+        <v>8.6807600000000011</v>
       </c>
       <c r="I21" s="7">
-        <v>6.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J21" s="7">
-        <v>570</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B22" s="8">
-        <v>26324</v>
+        <v>30386</v>
       </c>
       <c r="C22" s="7">
         <v>165</v>
       </c>
       <c r="D22" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -6674,557 +8518,557 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B23" s="8">
-        <v>57914</v>
+        <v>27219</v>
       </c>
       <c r="C23" s="7">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="D23" s="7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E23" s="7">
-        <v>2439</v>
+        <v>0</v>
       </c>
       <c r="F23" s="7">
         <v>5</v>
       </c>
       <c r="G23" s="7">
-        <v>33.700000000000003</v>
+        <v>23.9</v>
       </c>
       <c r="H23" s="7">
-        <v>8.5876780000000004</v>
+        <v>8.6807600000000011</v>
       </c>
       <c r="I23" s="7">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="J23" s="7">
-        <v>611.5</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>140955</v>
+        <v>25246</v>
       </c>
       <c r="C24" s="7">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="D24" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E24" s="7">
-        <v>5682</v>
+        <v>0</v>
       </c>
       <c r="F24" s="7">
         <v>5</v>
       </c>
       <c r="G24" s="7">
-        <v>44.9</v>
+        <v>29</v>
       </c>
       <c r="H24" s="7">
-        <v>9.2313240000000008</v>
+        <v>8.6855560000000001</v>
       </c>
       <c r="I24" s="7">
-        <v>5.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J24" s="7">
-        <v>675</v>
+        <v>612.5</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B25" s="8">
-        <v>18439</v>
+        <v>47111</v>
       </c>
       <c r="C25" s="7">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="D25" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E25" s="7">
-        <v>0</v>
+        <v>2888</v>
       </c>
       <c r="F25" s="7">
         <v>5</v>
       </c>
       <c r="G25" s="7">
-        <v>21.4</v>
+        <v>29.57</v>
       </c>
       <c r="H25" s="7">
-        <v>7.2037200000000006</v>
+        <v>9.1507149999999999</v>
       </c>
       <c r="I25" s="7">
-        <v>9.1999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J25" s="7">
-        <v>522.5</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="8">
-        <v>161489</v>
+        <v>140955</v>
       </c>
       <c r="C26" s="7">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D26" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E26" s="7">
-        <v>6031</v>
+        <v>5682</v>
       </c>
       <c r="F26" s="7">
         <v>5</v>
       </c>
       <c r="G26" s="7">
-        <v>25.5</v>
+        <v>44.9</v>
       </c>
       <c r="H26" s="7">
-        <v>8.0029760000000003</v>
+        <v>9.2313240000000008</v>
       </c>
       <c r="I26" s="7">
-        <v>8.8000000000000007</v>
+        <v>5.6</v>
       </c>
       <c r="J26" s="7">
-        <v>647.5</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B27" s="8">
-        <v>238154</v>
+        <v>101248</v>
       </c>
       <c r="C27" s="7">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D27" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E27" s="7">
-        <v>10158</v>
+        <v>4102</v>
       </c>
       <c r="F27" s="7">
         <v>5</v>
       </c>
       <c r="G27" s="7">
-        <v>25.5</v>
+        <v>44.9</v>
       </c>
       <c r="H27" s="7">
-        <v>8.2909159999999993</v>
+        <v>9.2107100000000006</v>
       </c>
       <c r="I27" s="7">
-        <v>9.3000000000000007</v>
+        <v>5.5</v>
       </c>
       <c r="J27" s="7">
-        <v>588.5</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B28" s="8">
-        <v>21283</v>
+        <v>137038</v>
       </c>
       <c r="C28" s="7">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="D28" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E28" s="7">
-        <v>0</v>
+        <v>5495</v>
       </c>
       <c r="F28" s="7">
         <v>5</v>
       </c>
       <c r="G28" s="7">
-        <v>28.5</v>
+        <v>44.9</v>
       </c>
       <c r="H28" s="7">
-        <v>7.711850000000001</v>
+        <v>9.2107100000000006</v>
       </c>
       <c r="I28" s="7">
-        <v>8.6999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="J28" s="7">
-        <v>617</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B29" s="8">
-        <v>294238</v>
+        <v>349389</v>
       </c>
       <c r="C29" s="7">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="D29" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E29" s="7">
-        <v>11350</v>
+        <v>19213</v>
       </c>
       <c r="F29" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29" s="7">
-        <v>38.700000000000003</v>
+        <v>51</v>
       </c>
       <c r="H29" s="7">
-        <v>7.6779120000000001</v>
+        <v>9.3149540000000002</v>
       </c>
       <c r="I29" s="7">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J29" s="7">
-        <v>547.5</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B30" s="8">
-        <v>45036</v>
+        <v>185115</v>
       </c>
       <c r="C30" s="7">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="D30" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E30" s="7">
-        <v>1884</v>
+        <v>8076</v>
       </c>
       <c r="F30" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" s="7">
-        <v>28.5</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="H30" s="7">
-        <v>7.5647899999999986</v>
+        <v>9.5053140000000003</v>
       </c>
       <c r="I30" s="7">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="J30" s="7">
-        <v>432</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B31" s="8">
-        <v>22414</v>
+        <v>105890</v>
       </c>
       <c r="C31" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D31" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E31" s="7">
-        <v>0</v>
+        <v>4206</v>
       </c>
       <c r="F31" s="7">
         <v>5</v>
       </c>
       <c r="G31" s="7">
-        <v>23.9</v>
+        <v>25.5</v>
       </c>
       <c r="H31" s="7">
-        <v>7.2037200000000006</v>
+        <v>8.0344280000000001</v>
       </c>
       <c r="I31" s="7">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="J31" s="7">
-        <v>498</v>
+        <v>707.5</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B32" s="8">
-        <v>26010</v>
+        <v>238154</v>
       </c>
       <c r="C32" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D32" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E32" s="7">
-        <v>0</v>
+        <v>10158</v>
       </c>
       <c r="F32" s="7">
         <v>5</v>
       </c>
       <c r="G32" s="7">
-        <v>23.9</v>
+        <v>25.5</v>
       </c>
       <c r="H32" s="7">
-        <v>7.2037200000000006</v>
+        <v>8.2909159999999993</v>
       </c>
       <c r="I32" s="7">
-        <v>7.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J32" s="7">
-        <v>498</v>
+        <v>588.5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B33" s="8">
-        <v>22858</v>
+        <v>129711</v>
       </c>
       <c r="C33" s="7">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D33" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E33" s="7">
-        <v>0</v>
+        <v>5067</v>
       </c>
       <c r="F33" s="7">
         <v>5</v>
       </c>
       <c r="G33" s="7">
-        <v>19.899999999999999</v>
+        <v>25.5</v>
       </c>
       <c r="H33" s="7">
-        <v>8.059056</v>
+        <v>8.0344280000000001</v>
       </c>
       <c r="I33" s="7">
-        <v>10.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="J33" s="7">
-        <v>682.5</v>
+        <v>707.5</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B34" s="8">
-        <v>17353</v>
+        <v>153608</v>
       </c>
       <c r="C34" s="7">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="D34" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E34" s="7">
-        <v>0</v>
+        <v>6308</v>
       </c>
       <c r="F34" s="7">
         <v>5</v>
       </c>
       <c r="G34" s="7">
-        <v>17.3</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="H34" s="7">
-        <v>7.2037200000000006</v>
+        <v>8.7858419999999988</v>
       </c>
       <c r="I34" s="7">
-        <v>9.6999999999999993</v>
+        <v>5.9</v>
       </c>
       <c r="J34" s="7">
-        <v>566.5</v>
+        <v>589</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B35" s="8">
-        <v>16274</v>
+        <v>518430</v>
       </c>
       <c r="C35" s="7">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="D35" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E35" s="7">
-        <v>0</v>
+        <v>20969</v>
       </c>
       <c r="F35" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G35" s="7">
-        <v>21.4</v>
+        <v>51</v>
       </c>
       <c r="H35" s="7">
-        <v>7.2037200000000006</v>
+        <v>9.9741099999999996</v>
       </c>
       <c r="I35" s="7">
-        <v>9.1999999999999993</v>
+        <v>5.9</v>
       </c>
       <c r="J35" s="7">
-        <v>522.5</v>
+        <v>646.5</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B36" s="8">
-        <v>129711</v>
+        <v>436302</v>
       </c>
       <c r="C36" s="7">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="D36" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="7">
-        <v>5067</v>
+        <v>16804</v>
       </c>
       <c r="F36" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G36" s="7">
-        <v>25.5</v>
+        <v>51</v>
       </c>
       <c r="H36" s="7">
-        <v>8.0344280000000001</v>
+        <v>9.9741099999999996</v>
       </c>
       <c r="I36" s="7">
-        <v>8.9</v>
+        <v>5.9</v>
       </c>
       <c r="J36" s="7">
-        <v>707.5</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B37" s="8">
-        <v>58239</v>
+        <v>211467</v>
       </c>
       <c r="C37" s="7">
-        <v>225</v>
+        <v>354</v>
       </c>
       <c r="D37" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E37" s="7">
-        <v>0</v>
+        <v>8714</v>
       </c>
       <c r="F37" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" s="7">
-        <v>23.96</v>
+        <v>47.9</v>
       </c>
       <c r="H37" s="7">
-        <v>7.128324000000001</v>
+        <v>8.8746840000000002</v>
       </c>
       <c r="I37" s="7">
-        <v>7.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J37" s="7">
-        <v>583</v>
+        <v>626.5</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B38" s="8">
-        <v>30386</v>
+        <v>322651</v>
       </c>
       <c r="C38" s="7">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="D38" s="7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E38" s="7">
-        <v>0</v>
+        <v>13412</v>
       </c>
       <c r="F38" s="7">
         <v>5</v>
       </c>
       <c r="G38" s="7">
-        <v>23.45</v>
+        <v>51</v>
       </c>
       <c r="H38" s="7">
-        <v>8.6807600000000011</v>
+        <v>8.8422030000000014</v>
       </c>
       <c r="I38" s="7">
-        <v>9.1999999999999993</v>
+        <v>5.4</v>
       </c>
       <c r="J38" s="7">
-        <v>714</v>
+        <v>570.5</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B39" s="8">
-        <v>45994</v>
+        <v>245979</v>
       </c>
       <c r="C39" s="7">
-        <v>163</v>
+        <v>333</v>
       </c>
       <c r="D39" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E39" s="7">
-        <v>1868</v>
+        <v>9949</v>
       </c>
       <c r="F39" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39" s="7">
-        <v>23</v>
+        <v>44.9</v>
       </c>
       <c r="H39" s="7">
-        <v>8.1263920000000009</v>
+        <v>8.6025600000000004</v>
       </c>
       <c r="I39" s="7">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="J39" s="7">
-        <v>717.5</v>
+        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B40" s="8">
-        <v>27219</v>
+        <v>45220</v>
       </c>
       <c r="C40" s="7">
-        <v>165</v>
+        <v>300</v>
       </c>
       <c r="D40" s="7">
         <v>24</v>
@@ -7236,1802 +9080,117 @@
         <v>5</v>
       </c>
       <c r="G40" s="7">
-        <v>23.9</v>
+        <v>42.8</v>
       </c>
       <c r="H40" s="7">
-        <v>8.6807600000000011</v>
+        <v>8.9410500000000006</v>
       </c>
       <c r="I40" s="7">
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="J40" s="7">
-        <v>642</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B41" s="8">
-        <v>101248</v>
+        <v>58239</v>
       </c>
       <c r="C41" s="7">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="D41" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E41" s="7">
-        <v>4102</v>
+        <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41" s="7">
-        <v>44.9</v>
+        <v>23.96</v>
       </c>
       <c r="H41" s="7">
-        <v>9.2107100000000006</v>
+        <v>7.128324000000001</v>
       </c>
       <c r="I41" s="7">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="J41" s="7">
-        <v>690</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B42" s="8">
-        <v>137038</v>
+        <v>309303</v>
       </c>
       <c r="C42" s="7">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="D42" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E42" s="7">
-        <v>5495</v>
+        <v>12896</v>
       </c>
       <c r="F42" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G42" s="7">
-        <v>44.9</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="H42" s="7">
-        <v>9.2107100000000006</v>
+        <v>7.6522639999999997</v>
       </c>
       <c r="I42" s="7">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="J42" s="7">
-        <v>690</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B43" s="8">
-        <v>436302</v>
+        <v>294238</v>
       </c>
       <c r="C43" s="7">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="D43" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E43" s="7">
-        <v>16804</v>
+        <v>11350</v>
       </c>
       <c r="F43" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G43" s="7">
-        <v>51</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H43" s="7">
-        <v>9.9741099999999996</v>
+        <v>7.6779120000000001</v>
       </c>
       <c r="I43" s="7">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="J43" s="7">
-        <v>595</v>
+        <v>547.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AAC8DA-9662-4E7D-AFD4-07047822E583}">
-  <dimension ref="A1:K46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="91" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="8">
-        <v>16274</v>
-      </c>
-      <c r="C2" s="7">
-        <v>150</v>
-      </c>
-      <c r="D2" s="7">
-        <v>27</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>5</v>
-      </c>
-      <c r="G2" s="7">
-        <v>21.4</v>
-      </c>
-      <c r="H2" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I2" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J2" s="7">
-        <v>522.5</v>
-      </c>
-      <c r="K2" s="13">
-        <f>B2*Planilha1!$B$2 + C2 * Planilha1!$B$3 + D2 *Planilha1!$B$4 + E2 * Planilha1!$B$5 + G2 * Planilha1!$B$7 + H2 * Planilha1!$B$8 + I2 * Planilha1!$B$10 + J2 * Planilha1!$B$11</f>
-        <v>2032135524.8174899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="8">
-        <v>17015</v>
-      </c>
-      <c r="C3" s="7">
-        <v>150</v>
-      </c>
-      <c r="D3" s="7">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7">
-        <v>21.4</v>
-      </c>
-      <c r="H3" s="7">
-        <v>7.7621070000000003</v>
-      </c>
-      <c r="I3" s="7">
-        <v>8.6</v>
-      </c>
-      <c r="J3" s="7">
-        <v>651</v>
-      </c>
-      <c r="K3" s="13">
-        <f>B3*Planilha1!$B$2 + C3 * Planilha1!$B$3 + D3 *Planilha1!$B$4 + E3 * Planilha1!$B$5 + G3 * Planilha1!$B$7 + H3 * Planilha1!$B$8 + I3 * Planilha1!$B$10 + J3 * Planilha1!$B$11</f>
-        <v>2124664755.9708431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="8">
-        <v>17353</v>
-      </c>
-      <c r="C4" s="7">
-        <v>125</v>
-      </c>
-      <c r="D4" s="7">
-        <v>26</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7">
-        <v>17.3</v>
-      </c>
-      <c r="H4" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J4" s="7">
-        <v>566.5</v>
-      </c>
-      <c r="K4" s="13">
-        <f>B4*Planilha1!$B$2 + C4 * Planilha1!$B$3 + D4 *Planilha1!$B$4 + E4 * Planilha1!$B$5 + G4 * Planilha1!$B$7 + H4 * Planilha1!$B$8 + I4 * Planilha1!$B$10 + J4 * Planilha1!$B$11</f>
-        <v>2166868577.4305701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8">
-        <v>18129</v>
-      </c>
-      <c r="C5" s="7">
-        <v>125</v>
-      </c>
-      <c r="D5" s="7">
-        <v>26</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7.7621070000000003</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="J5" s="7">
-        <v>620</v>
-      </c>
-      <c r="K5" s="13">
-        <f>B5*Planilha1!$B$2 + C5 * Planilha1!$B$3 + D5 *Planilha1!$B$4 + E5 * Planilha1!$B$5 + G5 * Planilha1!$B$7 + H5 * Planilha1!$B$8 + I5 * Planilha1!$B$10 + J5 * Planilha1!$B$11</f>
-        <v>2263767622.1622529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="8">
-        <v>18439</v>
-      </c>
-      <c r="C6" s="7">
-        <v>150</v>
-      </c>
-      <c r="D6" s="7">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7">
-        <v>21.4</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J6" s="7">
-        <v>522.5</v>
-      </c>
-      <c r="K6" s="13">
-        <f>B6*Planilha1!$B$2 + C6 * Planilha1!$B$3 + D6 *Planilha1!$B$4 + E6 * Planilha1!$B$5 + G6 * Planilha1!$B$7 + H6 * Planilha1!$B$8 + I6 * Planilha1!$B$10 + J6 * Planilha1!$B$11</f>
-        <v>2302477630.67349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8">
-        <v>18724</v>
-      </c>
-      <c r="C7" s="7">
-        <v>150</v>
-      </c>
-      <c r="D7" s="7">
-        <v>26</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7">
-        <v>17.3</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11.3</v>
-      </c>
-      <c r="J7" s="7">
-        <v>492.5</v>
-      </c>
-      <c r="K7" s="13">
-        <f>B7*Planilha1!$B$2 + C7 * Planilha1!$B$3 + D7 *Planilha1!$B$4 + E7 * Planilha1!$B$5 + G7 * Planilha1!$B$7 + H7 * Planilha1!$B$8 + I7 * Planilha1!$B$10 + J7 * Planilha1!$B$11</f>
-        <v>2338065105.2789502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="8">
-        <v>21283</v>
-      </c>
-      <c r="C8" s="7">
-        <v>193</v>
-      </c>
-      <c r="D8" s="7">
-        <v>27</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>5</v>
-      </c>
-      <c r="G8" s="7">
-        <v>28.5</v>
-      </c>
-      <c r="H8" s="7">
-        <v>7.711850000000001</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J8" s="7">
-        <v>617</v>
-      </c>
-      <c r="K8" s="13">
-        <f>B8*Planilha1!$B$2 + C8 * Planilha1!$B$3 + D8 *Planilha1!$B$4 + E8 * Planilha1!$B$5 + G8 * Planilha1!$B$7 + H8 * Planilha1!$B$8 + I8 * Planilha1!$B$10 + J8 * Planilha1!$B$11</f>
-        <v>2657609059.9217753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8">
-        <v>22414</v>
-      </c>
-      <c r="C9" s="7">
-        <v>180</v>
-      </c>
-      <c r="D9" s="7">
-        <v>23</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7">
-        <v>23.9</v>
-      </c>
-      <c r="H9" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I9" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="J9" s="7">
-        <v>498</v>
-      </c>
-      <c r="K9" s="13">
-        <f>B9*Planilha1!$B$2 + C9 * Planilha1!$B$3 + D9 *Planilha1!$B$4 + E9 * Planilha1!$B$5 + G9 * Planilha1!$B$7 + H9 * Planilha1!$B$8 + I9 * Planilha1!$B$10 + J9 * Planilha1!$B$11</f>
-        <v>2798834606.3835797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="8">
-        <v>22858</v>
-      </c>
-      <c r="C10" s="7">
-        <v>130</v>
-      </c>
-      <c r="D10" s="7">
-        <v>22</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>5</v>
-      </c>
-      <c r="G10" s="7">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8.059056</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J10" s="7">
-        <v>682.5</v>
-      </c>
-      <c r="K10" s="13">
-        <f>B10*Planilha1!$B$2 + C10 * Planilha1!$B$3 + D10 *Planilha1!$B$4 + E10 * Planilha1!$B$5 + G10 * Planilha1!$B$7 + H10 * Planilha1!$B$8 + I10 * Planilha1!$B$10 + J10 * Planilha1!$B$11</f>
-        <v>2854275505.6879282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8">
-        <v>23585</v>
-      </c>
-      <c r="C11" s="7">
-        <v>180</v>
-      </c>
-      <c r="D11" s="7">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7">
-        <v>23.9</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J11" s="7">
-        <v>459.5</v>
-      </c>
-      <c r="K11" s="13">
-        <f>B11*Planilha1!$B$2 + C11 * Planilha1!$B$3 + D11 *Planilha1!$B$4 + E11 * Planilha1!$B$5 + G11 * Planilha1!$B$7 + H11 * Planilha1!$B$8 + I11 * Planilha1!$B$10 + J11 * Planilha1!$B$11</f>
-        <v>2945056278.8896704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="8">
-        <v>25246</v>
-      </c>
-      <c r="C12" s="7">
-        <v>174</v>
-      </c>
-      <c r="D12" s="7">
-        <v>26</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7">
-        <v>29</v>
-      </c>
-      <c r="H12" s="7">
-        <v>8.6855560000000001</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J12" s="7">
-        <v>612.5</v>
-      </c>
-      <c r="K12" s="13">
-        <f>B12*Planilha1!$B$2 + C12 * Planilha1!$B$3 + D12 *Planilha1!$B$4 + E12 * Planilha1!$B$5 + G12 * Planilha1!$B$7 + H12 * Planilha1!$B$8 + I12 * Planilha1!$B$10 + J12 * Planilha1!$B$11</f>
-        <v>3152465207.0550098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="8">
-        <v>26010</v>
-      </c>
-      <c r="C13" s="7">
-        <v>180</v>
-      </c>
-      <c r="D13" s="7">
-        <v>21</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>5</v>
-      </c>
-      <c r="G13" s="7">
-        <v>23.9</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="J13" s="7">
-        <v>498</v>
-      </c>
-      <c r="K13" s="13">
-        <f>B13*Planilha1!$B$2 + C13 * Planilha1!$B$3 + D13 *Planilha1!$B$4 + E13 * Planilha1!$B$5 + G13 * Planilha1!$B$7 + H13 * Planilha1!$B$8 + I13 * Planilha1!$B$10 + J13 * Planilha1!$B$11</f>
-        <v>3247864730.0957799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="8">
-        <v>26324</v>
-      </c>
-      <c r="C14" s="7">
-        <v>165</v>
-      </c>
-      <c r="D14" s="7">
-        <v>26</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>5</v>
-      </c>
-      <c r="G14" s="7">
-        <v>23.45</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8.6807600000000011</v>
-      </c>
-      <c r="I14" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J14" s="7">
-        <v>714</v>
-      </c>
-      <c r="K14" s="13">
-        <f>B14*Planilha1!$B$2 + C14 * Planilha1!$B$3 + D14 *Planilha1!$B$4 + E14 * Planilha1!$B$5 + G14 * Planilha1!$B$7 + H14 * Planilha1!$B$8 + I14 * Planilha1!$B$10 + J14 * Planilha1!$B$11</f>
-        <v>3287074673.3344827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="8">
-        <v>27219</v>
-      </c>
-      <c r="C15" s="7">
-        <v>165</v>
-      </c>
-      <c r="D15" s="7">
-        <v>24</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>5</v>
-      </c>
-      <c r="G15" s="7">
-        <v>23.9</v>
-      </c>
-      <c r="H15" s="7">
-        <v>8.6807600000000011</v>
-      </c>
-      <c r="I15" s="7">
-        <v>9.4</v>
-      </c>
-      <c r="J15" s="7">
-        <v>642</v>
-      </c>
-      <c r="K15" s="13">
-        <f>B15*Planilha1!$B$2 + C15 * Planilha1!$B$3 + D15 *Planilha1!$B$4 + E15 * Planilha1!$B$5 + G15 * Planilha1!$B$7 + H15 * Planilha1!$B$8 + I15 * Planilha1!$B$10 + J15 * Planilha1!$B$11</f>
-        <v>3398832144.8409576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="8">
-        <v>30210</v>
-      </c>
-      <c r="C16" s="7">
-        <v>165</v>
-      </c>
-      <c r="D16" s="7">
-        <v>24</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>5</v>
-      </c>
-      <c r="G16" s="7">
-        <v>23.4</v>
-      </c>
-      <c r="H16" s="7">
-        <v>7.7934600000000005</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="J16" s="7">
-        <v>583</v>
-      </c>
-      <c r="K16" s="13">
-        <f>B16*Planilha1!$B$2 + C16 * Planilha1!$B$3 + D16 *Planilha1!$B$4 + E16 * Planilha1!$B$5 + G16 * Planilha1!$B$7 + H16 * Planilha1!$B$8 + I16 * Planilha1!$B$10 + J16 * Planilha1!$B$11</f>
-        <v>3772315816.4958315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="8">
-        <v>30386</v>
-      </c>
-      <c r="C17" s="7">
-        <v>165</v>
-      </c>
-      <c r="D17" s="7">
-        <v>24</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>5</v>
-      </c>
-      <c r="G17" s="7">
-        <v>23.45</v>
-      </c>
-      <c r="H17" s="7">
-        <v>8.6807600000000011</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J17" s="7">
-        <v>714</v>
-      </c>
-      <c r="K17" s="13">
-        <f>B17*Planilha1!$B$2 + C17 * Planilha1!$B$3 + D17 *Planilha1!$B$4 + E17 * Planilha1!$B$5 + G17 * Planilha1!$B$7 + H17 * Planilha1!$B$8 + I17 * Planilha1!$B$10 + J17 * Planilha1!$B$11</f>
-        <v>3794293904.686883</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="8">
-        <v>45036</v>
-      </c>
-      <c r="C18" s="7">
-        <v>200</v>
-      </c>
-      <c r="D18" s="7">
-        <v>18</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1884</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5</v>
-      </c>
-      <c r="G18" s="7">
-        <v>28.5</v>
-      </c>
-      <c r="H18" s="7">
-        <v>7.5647899999999986</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7.2</v>
-      </c>
-      <c r="J18" s="7">
-        <v>432</v>
-      </c>
-      <c r="K18" s="13">
-        <f>B18*Planilha1!$B$2 + C18 * Planilha1!$B$3 + D18 *Planilha1!$B$4 + E18 * Planilha1!$B$5 + G18 * Planilha1!$B$7 + H18 * Planilha1!$B$8 + I18 * Planilha1!$B$10 + J18 * Planilha1!$B$11</f>
-        <v>5634117073.1194191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="8">
-        <v>45220</v>
-      </c>
-      <c r="C19" s="7">
-        <v>300</v>
-      </c>
-      <c r="D19" s="7">
-        <v>24</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>5</v>
-      </c>
-      <c r="G19" s="7">
-        <v>42.8</v>
-      </c>
-      <c r="H19" s="7">
-        <v>8.9410500000000006</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5.7</v>
-      </c>
-      <c r="J19" s="7">
-        <v>544</v>
-      </c>
-      <c r="K19" s="13">
-        <f>B19*Planilha1!$B$2 + C19 * Planilha1!$B$3 + D19 *Planilha1!$B$4 + E19 * Planilha1!$B$5 + G19 * Planilha1!$B$7 + H19 * Planilha1!$B$8 + I19 * Planilha1!$B$10 + J19 * Planilha1!$B$11</f>
-        <v>5646611269.6103296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="8">
-        <v>45994</v>
-      </c>
-      <c r="C20" s="7">
-        <v>163</v>
-      </c>
-      <c r="D20" s="7">
-        <v>17</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1868</v>
-      </c>
-      <c r="F20" s="7">
-        <v>5</v>
-      </c>
-      <c r="G20" s="7">
-        <v>23</v>
-      </c>
-      <c r="H20" s="7">
-        <v>8.1263920000000009</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="J20" s="7">
-        <v>717.5</v>
-      </c>
-      <c r="K20" s="13">
-        <f>B20*Planilha1!$B$2 + C20 * Planilha1!$B$3 + D20 *Planilha1!$B$4 + E20 * Planilha1!$B$5 + G20 * Planilha1!$B$7 + H20 * Planilha1!$B$8 + I20 * Planilha1!$B$10 + J20 * Planilha1!$B$11</f>
-        <v>5753653234.7392817</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="8">
-        <v>47111</v>
-      </c>
-      <c r="C21" s="7">
-        <v>218</v>
-      </c>
-      <c r="D21" s="7">
-        <v>19</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2888</v>
-      </c>
-      <c r="F21" s="7">
-        <v>5</v>
-      </c>
-      <c r="G21" s="7">
-        <v>29.57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>9.1507149999999999</v>
-      </c>
-      <c r="I21" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J21" s="7">
-        <v>675.5</v>
-      </c>
-      <c r="K21" s="13">
-        <f>B21*Planilha1!$B$2 + C21 * Planilha1!$B$3 + D21 *Planilha1!$B$4 + E21 * Planilha1!$B$5 + G21 * Planilha1!$B$7 + H21 * Planilha1!$B$8 + I21 * Planilha1!$B$10 + J21 * Planilha1!$B$11</f>
-        <v>5898812988.8965263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="8">
-        <v>57914</v>
-      </c>
-      <c r="C22" s="7">
-        <v>269</v>
-      </c>
-      <c r="D22" s="7">
-        <v>16</v>
-      </c>
-      <c r="E22" s="8">
-        <v>2439</v>
-      </c>
-      <c r="F22" s="7">
-        <v>5</v>
-      </c>
-      <c r="G22" s="7">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H22" s="7">
-        <v>8.5876780000000004</v>
-      </c>
-      <c r="I22" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="J22" s="7">
-        <v>611.5</v>
-      </c>
-      <c r="K22" s="13">
-        <f>B22*Planilha1!$B$2 + C22 * Planilha1!$B$3 + D22 *Planilha1!$B$4 + E22 * Planilha1!$B$5 + G22 * Planilha1!$B$7 + H22 * Planilha1!$B$8 + I22 * Planilha1!$B$10 + J22 * Planilha1!$B$11</f>
-        <v>7245279006.6256294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="8">
-        <v>58239</v>
-      </c>
-      <c r="C23" s="7">
-        <v>225</v>
-      </c>
-      <c r="D23" s="7">
-        <v>26</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>4</v>
-      </c>
-      <c r="G23" s="7">
-        <v>23.96</v>
-      </c>
-      <c r="H23" s="7">
-        <v>7.128324000000001</v>
-      </c>
-      <c r="I23" s="7">
-        <v>7.4</v>
-      </c>
-      <c r="J23" s="7">
-        <v>583</v>
-      </c>
-      <c r="K23" s="13">
-        <f>B23*Planilha1!$B$2 + C23 * Planilha1!$B$3 + D23 *Planilha1!$B$4 + E23 * Planilha1!$B$5 + G23 * Planilha1!$B$7 + H23 * Planilha1!$B$8 + I23 * Planilha1!$B$10 + J23 * Planilha1!$B$11</f>
-        <v>7272281350.3501558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="8">
-        <v>101248</v>
-      </c>
-      <c r="C24" s="7">
-        <v>300</v>
-      </c>
-      <c r="D24" s="7">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8">
-        <v>4102</v>
-      </c>
-      <c r="F24" s="7">
-        <v>5</v>
-      </c>
-      <c r="G24" s="7">
-        <v>44.9</v>
-      </c>
-      <c r="H24" s="7">
-        <v>9.2107100000000006</v>
-      </c>
-      <c r="I24" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="J24" s="7">
-        <v>690</v>
-      </c>
-      <c r="K24" s="13">
-        <f>B24*Planilha1!$B$2 + C24 * Planilha1!$B$3 + D24 *Planilha1!$B$4 + E24 * Planilha1!$B$5 + G24 * Planilha1!$B$7 + H24 * Planilha1!$B$8 + I24 * Planilha1!$B$10 + J24 * Planilha1!$B$11</f>
-        <v>12665626563.671076</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="8">
-        <v>105890</v>
-      </c>
-      <c r="C25" s="7">
-        <v>150</v>
-      </c>
-      <c r="D25" s="7">
-        <v>8</v>
-      </c>
-      <c r="E25" s="8">
-        <v>4206</v>
-      </c>
-      <c r="F25" s="7">
-        <v>5</v>
-      </c>
-      <c r="G25" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="H25" s="7">
-        <v>8.0344280000000001</v>
-      </c>
-      <c r="I25" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="J25" s="7">
-        <v>707.5</v>
-      </c>
-      <c r="K25" s="13">
-        <f>B25*Planilha1!$B$2 + C25 * Planilha1!$B$3 + D25 *Planilha1!$B$4 + E25 * Planilha1!$B$5 + G25 * Planilha1!$B$7 + H25 * Planilha1!$B$8 + I25 * Planilha1!$B$10 + J25 * Planilha1!$B$11</f>
-        <v>13245841212.601503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="8">
-        <v>106177</v>
-      </c>
-      <c r="C26" s="7">
-        <v>190</v>
-      </c>
-      <c r="D26" s="7">
-        <v>9</v>
-      </c>
-      <c r="E26" s="8">
-        <v>4463</v>
-      </c>
-      <c r="F26" s="7">
-        <v>5</v>
-      </c>
-      <c r="G26" s="7">
-        <v>32.6</v>
-      </c>
-      <c r="H26" s="7">
-        <v>8.705292</v>
-      </c>
-      <c r="I26" s="7">
-        <v>7.3</v>
-      </c>
-      <c r="J26" s="7">
-        <v>683</v>
-      </c>
-      <c r="K26" s="13">
-        <f>B26*Planilha1!$B$2 + C26 * Planilha1!$B$3 + D26 *Planilha1!$B$4 + E26 * Planilha1!$B$5 + G26 * Planilha1!$B$7 + H26 * Planilha1!$B$8 + I26 * Planilha1!$B$10 + J26 * Planilha1!$B$11</f>
-        <v>13283111305.09473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="8">
-        <v>108031</v>
-      </c>
-      <c r="C27" s="7">
-        <v>170</v>
-      </c>
-      <c r="D27" s="7">
-        <v>9</v>
-      </c>
-      <c r="E27" s="8">
-        <v>4268</v>
-      </c>
-      <c r="F27" s="7">
-        <v>4</v>
-      </c>
-      <c r="G27" s="7">
-        <v>32.4</v>
-      </c>
-      <c r="H27" s="7">
-        <v>8.7360480000000003</v>
-      </c>
-      <c r="I27" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="J27" s="7">
-        <v>630</v>
-      </c>
-      <c r="K27" s="13">
-        <f>B27*Planilha1!$B$2 + C27 * Planilha1!$B$3 + D27 *Planilha1!$B$4 + E27 * Planilha1!$B$5 + G27 * Planilha1!$B$7 + H27 * Planilha1!$B$8 + I27 * Planilha1!$B$10 + J27 * Planilha1!$B$11</f>
-        <v>13513532033.553373</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="8">
-        <v>129711</v>
-      </c>
-      <c r="C28" s="7">
-        <v>150</v>
-      </c>
-      <c r="D28" s="7">
-        <v>6</v>
-      </c>
-      <c r="E28" s="8">
-        <v>5067</v>
-      </c>
-      <c r="F28" s="7">
-        <v>5</v>
-      </c>
-      <c r="G28" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="H28" s="7">
-        <v>8.0344280000000001</v>
-      </c>
-      <c r="I28" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="J28" s="7">
-        <v>707.5</v>
-      </c>
-      <c r="K28" s="13">
-        <f>B28*Planilha1!$B$2 + C28 * Planilha1!$B$3 + D28 *Planilha1!$B$4 + E28 * Planilha1!$B$5 + G28 * Planilha1!$B$7 + H28 * Planilha1!$B$8 + I28 * Planilha1!$B$10 + J28 * Planilha1!$B$11</f>
-        <v>16225146580.372103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="8">
-        <v>137038</v>
-      </c>
-      <c r="C29" s="7">
-        <v>300</v>
-      </c>
-      <c r="D29" s="7">
-        <v>11</v>
-      </c>
-      <c r="E29" s="8">
-        <v>5495</v>
-      </c>
-      <c r="F29" s="7">
-        <v>5</v>
-      </c>
-      <c r="G29" s="7">
-        <v>44.9</v>
-      </c>
-      <c r="H29" s="7">
-        <v>9.2107100000000006</v>
-      </c>
-      <c r="I29" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="J29" s="7">
-        <v>690</v>
-      </c>
-      <c r="K29" s="13">
-        <f>B29*Planilha1!$B$2 + C29 * Planilha1!$B$3 + D29 *Planilha1!$B$4 + E29 * Planilha1!$B$5 + G29 * Planilha1!$B$7 + H29 * Planilha1!$B$8 + I29 * Planilha1!$B$10 + J29 * Planilha1!$B$11</f>
-        <v>17142454498.511774</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="8">
-        <v>140955</v>
-      </c>
-      <c r="C30" s="7">
-        <v>300</v>
-      </c>
-      <c r="D30" s="7">
-        <v>11</v>
-      </c>
-      <c r="E30" s="8">
-        <v>5682</v>
-      </c>
-      <c r="F30" s="7">
-        <v>5</v>
-      </c>
-      <c r="G30" s="7">
-        <v>44.9</v>
-      </c>
-      <c r="H30" s="7">
-        <v>9.2313240000000008</v>
-      </c>
-      <c r="I30" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="J30" s="7">
-        <v>675</v>
-      </c>
-      <c r="K30" s="13">
-        <f>B30*Planilha1!$B$2 + C30 * Planilha1!$B$3 + D30 *Planilha1!$B$4 + E30 * Planilha1!$B$5 + G30 * Planilha1!$B$7 + H30 * Planilha1!$B$8 + I30 * Planilha1!$B$10 + J30 * Planilha1!$B$11</f>
-        <v>17632608538.082325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="8">
-        <v>153608</v>
-      </c>
-      <c r="C31" s="7">
-        <v>272</v>
-      </c>
-      <c r="D31" s="7">
-        <v>9</v>
-      </c>
-      <c r="E31" s="8">
-        <v>6308</v>
-      </c>
-      <c r="F31" s="7">
-        <v>5</v>
-      </c>
-      <c r="G31" s="7">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H31" s="7">
-        <v>8.7858419999999988</v>
-      </c>
-      <c r="I31" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="J31" s="7">
-        <v>589</v>
-      </c>
-      <c r="K31" s="13">
-        <f>B31*Planilha1!$B$2 + C31 * Planilha1!$B$3 + D31 *Planilha1!$B$4 + E31 * Planilha1!$B$5 + G31 * Planilha1!$B$7 + H31 * Planilha1!$B$8 + I31 * Planilha1!$B$10 + J31 * Planilha1!$B$11</f>
-        <v>19216062831.345264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="8">
-        <v>161489</v>
-      </c>
-      <c r="C32" s="7">
-        <v>150</v>
-      </c>
-      <c r="D32" s="7">
-        <v>4</v>
-      </c>
-      <c r="E32" s="8">
-        <v>6031</v>
-      </c>
-      <c r="F32" s="7">
-        <v>5</v>
-      </c>
-      <c r="G32" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="H32" s="7">
-        <v>8.0029760000000003</v>
-      </c>
-      <c r="I32" s="7">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J32" s="7">
-        <v>647.5</v>
-      </c>
-      <c r="K32" s="13">
-        <f>B32*Planilha1!$B$2 + C32 * Planilha1!$B$3 + D32 *Planilha1!$B$4 + E32 * Planilha1!$B$5 + G32 * Planilha1!$B$7 + H32 * Planilha1!$B$8 + I32 * Planilha1!$B$10 + J32 * Planilha1!$B$11</f>
-        <v>20198610092.553505</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="8">
-        <v>185115</v>
-      </c>
-      <c r="C33" s="7">
-        <v>252</v>
-      </c>
-      <c r="D33" s="7">
-        <v>9</v>
-      </c>
-      <c r="E33" s="8">
-        <v>8076</v>
-      </c>
-      <c r="F33" s="7">
-        <v>4</v>
-      </c>
-      <c r="G33" s="7">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="H33" s="7">
-        <v>9.5053140000000003</v>
-      </c>
-      <c r="I33" s="7">
-        <v>6.9</v>
-      </c>
-      <c r="J33" s="7">
-        <v>668</v>
-      </c>
-      <c r="K33" s="13">
-        <f>B33*Planilha1!$B$2 + C33 * Planilha1!$B$3 + D33 *Planilha1!$B$4 + E33 * Planilha1!$B$5 + G33 * Planilha1!$B$7 + H33 * Planilha1!$B$8 + I33 * Planilha1!$B$10 + J33 * Planilha1!$B$11</f>
-        <v>23160162573.591789</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="8">
-        <v>206956</v>
-      </c>
-      <c r="C34" s="7">
-        <v>252</v>
-      </c>
-      <c r="D34" s="7">
-        <v>6</v>
-      </c>
-      <c r="E34" s="8">
-        <v>8707</v>
-      </c>
-      <c r="F34" s="7">
-        <v>5</v>
-      </c>
-      <c r="G34" s="7">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="H34" s="7">
-        <v>8.7229189999999992</v>
-      </c>
-      <c r="I34" s="7">
-        <v>6</v>
-      </c>
-      <c r="J34" s="7">
-        <v>614.5</v>
-      </c>
-      <c r="K34" s="13">
-        <f>B34*Planilha1!$B$2 + C34 * Planilha1!$B$3 + D34 *Planilha1!$B$4 + E34 * Planilha1!$B$5 + G34 * Planilha1!$B$7 + H34 * Planilha1!$B$8 + I34 * Planilha1!$B$10 + J34 * Planilha1!$B$11</f>
-        <v>25890945859.562416</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="8">
-        <v>211467</v>
-      </c>
-      <c r="C35" s="7">
-        <v>354</v>
-      </c>
-      <c r="D35" s="7">
-        <v>9</v>
-      </c>
-      <c r="E35" s="8">
-        <v>8714</v>
-      </c>
-      <c r="F35" s="7">
-        <v>5</v>
-      </c>
-      <c r="G35" s="7">
-        <v>47.9</v>
-      </c>
-      <c r="H35" s="7">
-        <v>8.8746840000000002</v>
-      </c>
-      <c r="I35" s="7">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J35" s="7">
-        <v>626.5</v>
-      </c>
-      <c r="K35" s="13">
-        <f>B35*Planilha1!$B$2 + C35 * Planilha1!$B$3 + D35 *Planilha1!$B$4 + E35 * Planilha1!$B$5 + G35 * Planilha1!$B$7 + H35 * Planilha1!$B$8 + I35 * Planilha1!$B$10 + J35 * Planilha1!$B$11</f>
-        <v>26454275800.382915</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="8">
-        <v>238154</v>
-      </c>
-      <c r="C36" s="7">
-        <v>150</v>
-      </c>
-      <c r="D36" s="7">
-        <v>3</v>
-      </c>
-      <c r="E36" s="8">
-        <v>10158</v>
-      </c>
-      <c r="F36" s="7">
-        <v>5</v>
-      </c>
-      <c r="G36" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="H36" s="7">
-        <v>8.2909159999999993</v>
-      </c>
-      <c r="I36" s="7">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="J36" s="7">
-        <v>588.5</v>
-      </c>
-      <c r="K36" s="13">
-        <f>B36*Planilha1!$B$2 + C36 * Planilha1!$B$3 + D36 *Planilha1!$B$4 + E36 * Planilha1!$B$5 + G36 * Planilha1!$B$7 + H36 * Planilha1!$B$8 + I36 * Planilha1!$B$10 + J36 * Planilha1!$B$11</f>
-        <v>29794691128.65184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="8">
-        <v>245979</v>
-      </c>
-      <c r="C37" s="7">
-        <v>333</v>
-      </c>
-      <c r="D37" s="7">
-        <v>12</v>
-      </c>
-      <c r="E37" s="8">
-        <v>9949</v>
-      </c>
-      <c r="F37" s="7">
-        <v>4</v>
-      </c>
-      <c r="G37" s="7">
-        <v>44.9</v>
-      </c>
-      <c r="H37" s="7">
-        <v>8.6025600000000004</v>
-      </c>
-      <c r="I37" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="J37" s="7">
-        <v>580</v>
-      </c>
-      <c r="K37" s="13">
-        <f>B37*Planilha1!$B$2 + C37 * Planilha1!$B$3 + D37 *Planilha1!$B$4 + E37 * Planilha1!$B$5 + G37 * Planilha1!$B$7 + H37 * Planilha1!$B$8 + I37 * Planilha1!$B$10 + J37 * Planilha1!$B$11</f>
-        <v>30770639645.563625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="8">
-        <v>294238</v>
-      </c>
-      <c r="C38" s="7">
-        <v>286</v>
-      </c>
-      <c r="D38" s="7">
-        <v>9</v>
-      </c>
-      <c r="E38" s="8">
-        <v>11350</v>
-      </c>
-      <c r="F38" s="7">
-        <v>4</v>
-      </c>
-      <c r="G38" s="7">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="H38" s="7">
-        <v>7.6779120000000001</v>
-      </c>
-      <c r="I38" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="J38" s="7">
-        <v>547.5</v>
-      </c>
-      <c r="K38" s="13">
-        <f>B38*Planilha1!$B$2 + C38 * Planilha1!$B$3 + D38 *Planilha1!$B$4 + E38 * Planilha1!$B$5 + G38 * Planilha1!$B$7 + H38 * Planilha1!$B$8 + I38 * Planilha1!$B$10 + J38 * Planilha1!$B$11</f>
-        <v>36804505046.84066</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="8">
-        <v>309303</v>
-      </c>
-      <c r="C39" s="7">
-        <v>230</v>
-      </c>
-      <c r="D39" s="7">
-        <v>7</v>
-      </c>
-      <c r="E39" s="8">
-        <v>12896</v>
-      </c>
-      <c r="F39" s="7">
-        <v>2</v>
-      </c>
-      <c r="G39" s="7">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="H39" s="7">
-        <v>7.6522639999999997</v>
-      </c>
-      <c r="I39" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="J39" s="7">
-        <v>570</v>
-      </c>
-      <c r="K39" s="13">
-        <f>B39*Planilha1!$B$2 + C39 * Planilha1!$B$3 + D39 *Planilha1!$B$4 + E39 * Planilha1!$B$5 + G39 * Planilha1!$B$7 + H39 * Planilha1!$B$8 + I39 * Planilha1!$B$10 + J39 * Planilha1!$B$11</f>
-        <v>38694265134.669121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="8">
-        <v>322651</v>
-      </c>
-      <c r="C40" s="7">
-        <v>354</v>
-      </c>
-      <c r="D40" s="7">
-        <v>6</v>
-      </c>
-      <c r="E40" s="8">
-        <v>13412</v>
-      </c>
-      <c r="F40" s="7">
-        <v>5</v>
-      </c>
-      <c r="G40" s="7">
-        <v>51</v>
-      </c>
-      <c r="H40" s="7">
-        <v>8.8422030000000014</v>
-      </c>
-      <c r="I40" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="J40" s="7">
-        <v>570.5</v>
-      </c>
-      <c r="K40" s="13">
-        <f>B40*Planilha1!$B$2 + C40 * Planilha1!$B$3 + D40 *Planilha1!$B$4 + E40 * Planilha1!$B$5 + G40 * Planilha1!$B$7 + H40 * Planilha1!$B$8 + I40 * Planilha1!$B$10 + J40 * Planilha1!$B$11</f>
-        <v>40363899964.466644</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="8">
-        <v>349389</v>
-      </c>
-      <c r="C41" s="7">
-        <v>340</v>
-      </c>
-      <c r="D41" s="7">
-        <v>4</v>
-      </c>
-      <c r="E41" s="8">
-        <v>19213</v>
-      </c>
-      <c r="F41" s="7">
-        <v>5</v>
-      </c>
-      <c r="G41" s="7">
-        <v>51</v>
-      </c>
-      <c r="H41" s="7">
-        <v>9.3149540000000002</v>
-      </c>
-      <c r="I41" s="7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J41" s="7">
-        <v>679</v>
-      </c>
-      <c r="K41" s="13">
-        <f>B41*Planilha1!$B$2 + C41 * Planilha1!$B$3 + D41 *Planilha1!$B$4 + E41 * Planilha1!$B$5 + G41 * Planilha1!$B$7 + H41 * Planilha1!$B$8 + I41 * Planilha1!$B$10 + J41 * Planilha1!$B$11</f>
-        <v>43734949541.803261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="8">
-        <v>436302</v>
-      </c>
-      <c r="C42" s="7">
-        <v>340</v>
-      </c>
-      <c r="D42" s="7">
-        <v>5</v>
-      </c>
-      <c r="E42" s="8">
-        <v>16804</v>
-      </c>
-      <c r="F42" s="7">
-        <v>7</v>
-      </c>
-      <c r="G42" s="7">
-        <v>51</v>
-      </c>
-      <c r="H42" s="7">
-        <v>9.9741099999999996</v>
-      </c>
-      <c r="I42" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="J42" s="7">
-        <v>595</v>
-      </c>
-      <c r="K42" s="13">
-        <f>B42*Planilha1!$B$2 + C42 * Planilha1!$B$3 + D42 *Planilha1!$B$4 + E42 * Planilha1!$B$5 + G42 * Planilha1!$B$7 + H42 * Planilha1!$B$8 + I42 * Planilha1!$B$10 + J42 * Planilha1!$B$11</f>
-        <v>54574306368.746239</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="8">
-        <v>518430</v>
-      </c>
-      <c r="C43" s="7">
-        <v>340</v>
-      </c>
-      <c r="D43" s="7">
-        <v>2</v>
-      </c>
-      <c r="E43" s="8">
-        <v>20969</v>
-      </c>
-      <c r="F43" s="7">
-        <v>7</v>
-      </c>
-      <c r="G43" s="7">
-        <v>51</v>
-      </c>
-      <c r="H43" s="7">
-        <v>9.9741099999999996</v>
-      </c>
-      <c r="I43" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="J43" s="7">
-        <v>646.5</v>
-      </c>
-      <c r="K43" s="13">
-        <f>B43*Planilha1!$B$2 + C43 * Planilha1!$B$3 + D43 *Planilha1!$B$4 + E43 * Planilha1!$B$5 + G43 * Planilha1!$B$7 + H43 * Planilha1!$B$8 + I43 * Planilha1!$B$10 + J43 * Planilha1!$B$11</f>
-        <v>64852761022.463287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="9">
-        <v>894310</v>
-      </c>
-      <c r="C44" s="10">
-        <v>525</v>
-      </c>
-      <c r="D44" s="10">
-        <v>12</v>
-      </c>
-      <c r="E44" s="9">
-        <v>35185</v>
-      </c>
-      <c r="F44" s="10">
-        <v>2</v>
-      </c>
-      <c r="G44" s="10">
-        <v>54.1</v>
-      </c>
-      <c r="H44" s="10">
-        <v>8.5647600000000015</v>
-      </c>
-      <c r="I44" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="J44" s="10">
-        <v>460</v>
-      </c>
-      <c r="K44" s="14">
-        <f>B44*Planilha1!$B$2 + C44 * Planilha1!$B$3 + D44 *Planilha1!$B$4 + E44 * Planilha1!$B$5 + G44 * Planilha1!$B$7 + H44 * Planilha1!$B$8 + I44 * Planilha1!$B$10 + J44 * Planilha1!$B$11</f>
-        <v>111867790862.005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="9">
-        <v>1204150</v>
-      </c>
-      <c r="C45" s="10">
-        <v>630</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0</v>
-      </c>
-      <c r="E45" s="9">
-        <v>45630</v>
-      </c>
-      <c r="F45" s="10">
-        <v>4</v>
-      </c>
-      <c r="G45" s="10">
-        <v>86.7</v>
-      </c>
-      <c r="H45" s="10">
-        <v>9.7452450000000006</v>
-      </c>
-      <c r="I45" s="10">
-        <v>3.4</v>
-      </c>
-      <c r="J45" s="10">
-        <v>500</v>
-      </c>
-      <c r="K45" s="14">
-        <f>B45*Planilha1!$B$2 + C45 * Planilha1!$B$3 + D45 *Planilha1!$B$4 + E45 * Planilha1!$B$5 + G45 * Planilha1!$B$7 + H45 * Planilha1!$B$8 + I45 * Planilha1!$B$10 + J45 * Planilha1!$B$11</f>
-        <v>150615455748.34927</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="9">
-        <v>1316250</v>
-      </c>
-      <c r="C46" s="10">
-        <v>610</v>
-      </c>
-      <c r="D46" s="10">
-        <v>8</v>
-      </c>
-      <c r="E46" s="9">
-        <v>50749</v>
-      </c>
-      <c r="F46" s="10">
-        <v>2</v>
-      </c>
-      <c r="G46" s="10">
-        <v>56.1</v>
-      </c>
-      <c r="H46" s="10">
-        <v>8.5864399999999996</v>
-      </c>
-      <c r="I46" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="J46" s="10">
-        <v>553.5</v>
-      </c>
-      <c r="K46" s="14">
-        <f>B46*Planilha1!$B$2 + C46 * Planilha1!$B$3 + D46 *Planilha1!$B$4 + E46 * Planilha1!$B$5 + G46 * Planilha1!$B$7 + H46 * Planilha1!$B$8 + I46 * Planilha1!$B$10 + J46 * Planilha1!$B$11</f>
-        <v>164641803372.40668</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L46">
-    <sortCondition ref="L2:L46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K43">
+    <sortCondition ref="A2:A43"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Banco de Dados.xlsx
+++ b/Banco de Dados.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\Nova pasta (2)\audi-ideal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\SistemasDeApoioADecis-o\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C313DE-BDF3-4429-A8E3-74245663DA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC16B42-7EA2-41F7-8BD3-A13003507FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Page1" sheetId="1" r:id="rId1"/>
-    <sheet name="BancoFinal" sheetId="5" r:id="rId2"/>
-    <sheet name="SemOutlier" sheetId="2" r:id="rId3"/>
-    <sheet name="Planilha1" sheetId="6" r:id="rId4"/>
+    <sheet name="DadosBrutos" sheetId="1" r:id="rId1"/>
+    <sheet name="DadosFinais" sheetId="7" r:id="rId2"/>
+    <sheet name="CoefFatorial" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>Modelo</t>
   </si>
@@ -213,10 +212,31 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Scores</t>
+    <t>Cluster</t>
   </si>
   <si>
-    <t>Cluster</t>
+    <t xml:space="preserve"> 124869,3297</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51,6498</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -7,0555</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5566,8419</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,1102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,4570</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,2803</t>
+  </si>
+  <si>
+    <t>COEF. SCORES</t>
   </si>
 </sst>
 </file>
@@ -226,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -259,8 +279,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -296,12 +325,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -376,11 +405,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -410,10 +450,17 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,7 +683,7 @@
   <sheetViews>
     <sheetView zoomScale="72" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A46"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5964,31 +6011,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AAC8DA-9662-4E7D-AFD4-07047822E583}">
-  <dimension ref="A1:L46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B22725-6EEE-4B82-BA69-6B5B4E331DF4}">
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -6008,33 +6053,27 @@
         <v>6</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="I1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="8">
-        <v>17353</v>
+        <v>58239</v>
       </c>
       <c r="C2" s="7">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="D2" s="7">
         <v>26</v>
@@ -6043,40 +6082,38 @@
         <v>0</v>
       </c>
       <c r="F2" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="7">
-        <v>17.3</v>
+        <v>7.128324000000001</v>
       </c>
       <c r="H2" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I2" s="7">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J2" s="7">
-        <v>566.5</v>
-      </c>
-      <c r="K2" s="13">
-        <f>B2*Planilha1!$B$2 + C2 * Planilha1!$B$3 + D2 *Planilha1!$B$4 + E2 * Planilha1!$B$5 + G2 * Planilha1!$B$7 + H2 * Planilha1!$B$8 + I2 * Planilha1!$B$10 + J2 * Planilha1!$B$11</f>
-        <v>2166868577.4305701</v>
-      </c>
-      <c r="L2" s="16">
+        <v>583</v>
+      </c>
+      <c r="I2" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J2" s="13">
+        <f>B2*CoefFatorial!$B$2 + C2* CoefFatorial!$B$3 + D2 * CoefFatorial!$B$4 + E2 * CoefFatorial!$B$5 + F2 * CoefFatorial!$B$6 + G2 * CoefFatorial!$B$7 + H2 * CoefFatorial!$B$8</f>
+        <v>7272281161.2736435</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(J2 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="8">
-        <v>16274</v>
+        <v>17353</v>
       </c>
       <c r="C3" s="7">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D3" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -6085,37 +6122,35 @@
         <v>5</v>
       </c>
       <c r="G3" s="7">
-        <v>21.4</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="H3" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I3" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J3" s="7">
-        <v>522.5</v>
-      </c>
-      <c r="K3" s="13">
-        <f>B3*Planilha1!$B$2 + C3 * Planilha1!$B$3 + D3 *Planilha1!$B$4 + E3 * Planilha1!$B$5 + G3 * Planilha1!$B$7 + H3 * Planilha1!$B$8 + I3 * Planilha1!$B$10 + J3 * Planilha1!$B$11</f>
-        <v>2032135524.8174899</v>
-      </c>
-      <c r="L3" s="16">
+        <v>566.5</v>
+      </c>
+      <c r="I3" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="13">
+        <f>B3*CoefFatorial!$B$2 + C3* CoefFatorial!$B$3 + D3 * CoefFatorial!$B$4 + E3 * CoefFatorial!$B$5 + F3 * CoefFatorial!$B$6 + G3 * CoefFatorial!$B$7 + H3 * CoefFatorial!$B$8</f>
+        <v>2166868445.6991501</v>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(J3 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8">
-        <v>18724</v>
+        <v>16274</v>
       </c>
       <c r="C4" s="7">
         <v>150</v>
       </c>
       <c r="D4" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -6124,37 +6159,35 @@
         <v>5</v>
       </c>
       <c r="G4" s="7">
-        <v>17.3</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="H4" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I4" s="7">
-        <v>11.3</v>
-      </c>
-      <c r="J4" s="7">
-        <v>492.5</v>
-      </c>
-      <c r="K4" s="13">
-        <f>B4*Planilha1!$B$2 + C4 * Planilha1!$B$3 + D4 *Planilha1!$B$4 + E4 * Planilha1!$B$5 + G4 * Planilha1!$B$7 + H4 * Planilha1!$B$8 + I4 * Planilha1!$B$10 + J4 * Planilha1!$B$11</f>
-        <v>2338065105.2789502</v>
-      </c>
-      <c r="L4" s="16">
+        <v>522.5</v>
+      </c>
+      <c r="I4" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J4" s="13">
+        <f>B4*CoefFatorial!$B$2 + C4* CoefFatorial!$B$3 + D4 * CoefFatorial!$B$4 + E4 * CoefFatorial!$B$5 + F4 * CoefFatorial!$B$6 + G4 * CoefFatorial!$B$7 + H4 * CoefFatorial!$B$8</f>
+        <v>2032135358.80915</v>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(J4 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8">
+        <v>18724</v>
+      </c>
+      <c r="C5" s="7">
+        <v>150</v>
+      </c>
+      <c r="D5" s="7">
         <v>26</v>
-      </c>
-      <c r="B5" s="8">
-        <v>22414</v>
-      </c>
-      <c r="C5" s="7">
-        <v>180</v>
-      </c>
-      <c r="D5" s="7">
-        <v>23</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
@@ -6163,37 +6196,35 @@
         <v>5</v>
       </c>
       <c r="G5" s="7">
-        <v>23.9</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="H5" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="J5" s="7">
-        <v>498</v>
-      </c>
-      <c r="K5" s="13">
-        <f>B5*Planilha1!$B$2 + C5 * Planilha1!$B$3 + D5 *Planilha1!$B$4 + E5 * Planilha1!$B$5 + G5 * Planilha1!$B$7 + H5 * Planilha1!$B$8 + I5 * Planilha1!$B$10 + J5 * Planilha1!$B$11</f>
-        <v>2798834606.3835797</v>
-      </c>
-      <c r="L5" s="16">
+        <v>492.5</v>
+      </c>
+      <c r="I5" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="13">
+        <f>B5*CoefFatorial!$B$2 + C5* CoefFatorial!$B$3 + D5 * CoefFatorial!$B$4 + E5 * CoefFatorial!$B$5 + F5 * CoefFatorial!$B$6 + G5 * CoefFatorial!$B$7 + H5 * CoefFatorial!$B$8</f>
+        <v>2338064975.2206502</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(J5 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="8">
-        <v>23585</v>
+        <v>22414</v>
       </c>
       <c r="C6" s="7">
         <v>180</v>
       </c>
       <c r="D6" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
@@ -6202,37 +6233,35 @@
         <v>5</v>
       </c>
       <c r="G6" s="7">
-        <v>23.9</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="H6" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I6" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J6" s="7">
-        <v>459.5</v>
-      </c>
-      <c r="K6" s="13">
-        <f>B6*Planilha1!$B$2 + C6 * Planilha1!$B$3 + D6 *Planilha1!$B$4 + E6 * Planilha1!$B$5 + G6 * Planilha1!$B$7 + H6 * Planilha1!$B$8 + I6 * Planilha1!$B$10 + J6 * Planilha1!$B$11</f>
-        <v>2945056278.8896704</v>
-      </c>
-      <c r="L6" s="16">
+        <v>498</v>
+      </c>
+      <c r="I6" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J6" s="13">
+        <f>B6*CoefFatorial!$B$2 + C6* CoefFatorial!$B$3 + D6 * CoefFatorial!$B$4 + E6 * CoefFatorial!$B$5 + F6 * CoefFatorial!$B$6 + G6 * CoefFatorial!$B$7 + H6 * CoefFatorial!$B$8</f>
+        <v>2798834418.0158</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(J6 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8">
-        <v>18439</v>
+        <v>23585</v>
       </c>
       <c r="C7" s="7">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D7" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -6241,37 +6270,35 @@
         <v>5</v>
       </c>
       <c r="G7" s="7">
-        <v>21.4</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="H7" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J7" s="7">
-        <v>522.5</v>
-      </c>
-      <c r="K7" s="13">
-        <f>B7*Planilha1!$B$2 + C7 * Planilha1!$B$3 + D7 *Planilha1!$B$4 + E7 * Planilha1!$B$5 + G7 * Planilha1!$B$7 + H7 * Planilha1!$B$8 + I7 * Planilha1!$B$10 + J7 * Planilha1!$B$11</f>
-        <v>2302477630.67349</v>
-      </c>
-      <c r="L7" s="16">
+        <v>459.5</v>
+      </c>
+      <c r="I7" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="13">
+        <f>B7*CoefFatorial!$B$2 + C7* CoefFatorial!$B$3 + D7 * CoefFatorial!$B$4 + E7 * CoefFatorial!$B$5 + F7 * CoefFatorial!$B$6 + G7 * CoefFatorial!$B$7 + H7 * CoefFatorial!$B$8</f>
+        <v>2945056091.3584504</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(J7 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8">
-        <v>26010</v>
+        <v>18439</v>
       </c>
       <c r="C8" s="7">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D8" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
@@ -6280,65 +6307,61 @@
         <v>5</v>
       </c>
       <c r="G8" s="7">
-        <v>23.9</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="H8" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="J8" s="7">
-        <v>498</v>
-      </c>
-      <c r="K8" s="13">
-        <f>B8*Planilha1!$B$2 + C8 * Planilha1!$B$3 + D8 *Planilha1!$B$4 + E8 * Planilha1!$B$5 + G8 * Planilha1!$B$7 + H8 * Planilha1!$B$8 + I8 * Planilha1!$B$10 + J8 * Planilha1!$B$11</f>
-        <v>3247864730.0957799</v>
-      </c>
-      <c r="L8" s="16">
+        <v>522.5</v>
+      </c>
+      <c r="I8" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J8" s="13">
+        <f>B8*CoefFatorial!$B$2 + C8* CoefFatorial!$B$3 + D8 * CoefFatorial!$B$4 + E8 * CoefFatorial!$B$5 + F8 * CoefFatorial!$B$6 + G8 * CoefFatorial!$B$7 + H8 * CoefFatorial!$B$8</f>
+        <v>2302477464.6651502</v>
+      </c>
+      <c r="K8" t="str">
+        <f>IF(J8 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9" s="8">
-        <v>161489</v>
+        <v>26010</v>
       </c>
       <c r="C9" s="7">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D9" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E9" s="8">
-        <v>6031</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
         <v>5</v>
       </c>
       <c r="G9" s="7">
-        <v>25.5</v>
+        <v>7.2037200000000006</v>
       </c>
       <c r="H9" s="7">
-        <v>8.0029760000000003</v>
-      </c>
-      <c r="I9" s="7">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J9" s="7">
-        <v>647.5</v>
-      </c>
-      <c r="K9" s="13">
-        <f>B9*Planilha1!$B$2 + C9 * Planilha1!$B$3 + D9 *Planilha1!$B$4 + E9 * Planilha1!$B$5 + G9 * Planilha1!$B$7 + H9 * Planilha1!$B$8 + I9 * Planilha1!$B$10 + J9 * Planilha1!$B$11</f>
-        <v>20198610092.553505</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="I9" s="15">
+        <v>2</v>
+      </c>
+      <c r="J9" s="13">
+        <f>B9*CoefFatorial!$B$2 + C9* CoefFatorial!$B$3 + D9 * CoefFatorial!$B$4 + E9 * CoefFatorial!$B$5 + F9 * CoefFatorial!$B$6 + G9 * CoefFatorial!$B$7 + H9 * CoefFatorial!$B$8</f>
+        <v>3247864541.7280002</v>
+      </c>
+      <c r="K9" t="str">
+        <f>IF(J9 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -6358,115 +6381,109 @@
         <v>5</v>
       </c>
       <c r="G10" s="7">
-        <v>28.5</v>
+        <v>7.5647899999999986</v>
       </c>
       <c r="H10" s="7">
-        <v>7.5647899999999986</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7.2</v>
-      </c>
-      <c r="J10" s="7">
         <v>432</v>
       </c>
-      <c r="K10" s="13">
-        <f>B10*Planilha1!$B$2 + C10 * Planilha1!$B$3 + D10 *Planilha1!$B$4 + E10 * Planilha1!$B$5 + G10 * Planilha1!$B$7 + H10 * Planilha1!$B$8 + I10 * Planilha1!$B$10 + J10 * Planilha1!$B$11</f>
-        <v>5634117073.1194191</v>
-      </c>
-      <c r="L10" s="16">
+      <c r="I10" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J10" s="13">
+        <f>B10*CoefFatorial!$B$2 + C10* CoefFatorial!$B$3 + D10 * CoefFatorial!$B$4 + E10 * CoefFatorial!$B$5 + F10 * CoefFatorial!$B$6 + G10 * CoefFatorial!$B$7 + H10 * CoefFatorial!$B$8</f>
+        <v>5634116846.5675087</v>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(J10 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="8">
-        <v>17015</v>
+        <v>309303</v>
       </c>
       <c r="C11" s="7">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="D11" s="7">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E11" s="8">
+        <v>12896</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>7.6522639999999997</v>
+      </c>
+      <c r="H11" s="7">
+        <v>570</v>
+      </c>
+      <c r="I11" s="15">
         <v>0</v>
       </c>
-      <c r="F11" s="7">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7">
-        <v>21.4</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7.7621070000000003</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8.6</v>
-      </c>
-      <c r="J11" s="7">
-        <v>651</v>
-      </c>
-      <c r="K11" s="13">
-        <f>B11*Planilha1!$B$2 + C11 * Planilha1!$B$3 + D11 *Planilha1!$B$4 + E11 * Planilha1!$B$5 + G11 * Planilha1!$B$7 + H11 * Planilha1!$B$8 + I11 * Planilha1!$B$10 + J11 * Planilha1!$B$11</f>
-        <v>2124664755.9708431</v>
-      </c>
-      <c r="L11" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J11" s="13">
+        <f>B11*CoefFatorial!$B$2 + C11* CoefFatorial!$B$3 + D11 * CoefFatorial!$B$4 + E11 * CoefFatorial!$B$5 + F11 * CoefFatorial!$B$6 + G11 * CoefFatorial!$B$7 + H11 * CoefFatorial!$B$8</f>
+        <v>38694264830.8955</v>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(J11 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8">
-        <v>45994</v>
+        <v>294238</v>
       </c>
       <c r="C12" s="7">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="D12" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E12" s="8">
-        <v>1868</v>
+        <v>11350</v>
       </c>
       <c r="F12" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="7">
-        <v>23</v>
+        <v>7.6779120000000001</v>
       </c>
       <c r="H12" s="7">
-        <v>8.1263920000000009</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="J12" s="7">
-        <v>717.5</v>
-      </c>
-      <c r="K12" s="13">
-        <f>B12*Planilha1!$B$2 + C12 * Planilha1!$B$3 + D12 *Planilha1!$B$4 + E12 * Planilha1!$B$5 + G12 * Planilha1!$B$7 + H12 * Planilha1!$B$8 + I12 * Planilha1!$B$10 + J12 * Planilha1!$B$11</f>
-        <v>5753653234.7392817</v>
-      </c>
-      <c r="L12" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>547.5</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <f>B12*CoefFatorial!$B$2 + C12* CoefFatorial!$B$3 + D12 * CoefFatorial!$B$4 + E12 * CoefFatorial!$B$5 + F12 * CoefFatorial!$B$6 + G12 * CoefFatorial!$B$7 + H12 * CoefFatorial!$B$8</f>
+        <v>36804504733.590759</v>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(J12 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B13" s="8">
-        <v>18129</v>
+        <v>21283</v>
       </c>
       <c r="C13" s="7">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="D13" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="8">
         <v>0</v>
@@ -6475,37 +6492,35 @@
         <v>5</v>
       </c>
       <c r="G13" s="7">
-        <v>17.600000000000001</v>
+        <v>7.711850000000001</v>
       </c>
       <c r="H13" s="7">
-        <v>7.7621070000000003</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="J13" s="7">
-        <v>620</v>
-      </c>
-      <c r="K13" s="13">
-        <f>B13*Planilha1!$B$2 + C13 * Planilha1!$B$3 + D13 *Planilha1!$B$4 + E13 * Planilha1!$B$5 + G13 * Planilha1!$B$7 + H13 * Planilha1!$B$8 + I13 * Planilha1!$B$10 + J13 * Planilha1!$B$11</f>
-        <v>2263767622.1622529</v>
-      </c>
-      <c r="L13" s="16">
+        <v>617</v>
+      </c>
+      <c r="I13" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J13" s="13">
+        <f>B13*CoefFatorial!$B$2 + C13* CoefFatorial!$B$3 + D13 * CoefFatorial!$B$4 + E13 * CoefFatorial!$B$5 + F13 * CoefFatorial!$B$6 + G13 * CoefFatorial!$B$7 + H13 * CoefFatorial!$B$8</f>
+        <v>2657608834.9384155</v>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(J13 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B14" s="8">
-        <v>22858</v>
+        <v>17015</v>
       </c>
       <c r="C14" s="7">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E14" s="8">
         <v>0</v>
@@ -6514,37 +6529,35 @@
         <v>5</v>
       </c>
       <c r="G14" s="7">
-        <v>19.899999999999999</v>
+        <v>7.7621070000000003</v>
       </c>
       <c r="H14" s="7">
-        <v>8.059056</v>
-      </c>
-      <c r="I14" s="7">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J14" s="7">
-        <v>682.5</v>
-      </c>
-      <c r="K14" s="13">
-        <f>B14*Planilha1!$B$2 + C14 * Planilha1!$B$3 + D14 *Planilha1!$B$4 + E14 * Planilha1!$B$5 + G14 * Planilha1!$B$7 + H14 * Planilha1!$B$8 + I14 * Planilha1!$B$10 + J14 * Planilha1!$B$11</f>
-        <v>2854275505.6879282</v>
-      </c>
-      <c r="L14" s="16">
+        <v>651</v>
+      </c>
+      <c r="I14" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J14" s="13">
+        <f>B14*CoefFatorial!$B$2 + C14* CoefFatorial!$B$3 + D14 * CoefFatorial!$B$4 + E14 * CoefFatorial!$B$5 + F14 * CoefFatorial!$B$6 + G14 * CoefFatorial!$B$7 + H14 * CoefFatorial!$B$8</f>
+        <v>2124664589.3350832</v>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(J14 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="8">
-        <v>30210</v>
+        <v>18129</v>
       </c>
       <c r="C15" s="7">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="D15" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" s="8">
         <v>0</v>
@@ -6553,37 +6566,35 @@
         <v>5</v>
       </c>
       <c r="G15" s="7">
-        <v>23.4</v>
+        <v>7.7621070000000003</v>
       </c>
       <c r="H15" s="7">
-        <v>7.7934600000000005</v>
-      </c>
-      <c r="I15" s="7">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="J15" s="7">
-        <v>583</v>
-      </c>
-      <c r="K15" s="13">
-        <f>B15*Planilha1!$B$2 + C15 * Planilha1!$B$3 + D15 *Planilha1!$B$4 + E15 * Planilha1!$B$5 + G15 * Planilha1!$B$7 + H15 * Planilha1!$B$8 + I15 * Planilha1!$B$10 + J15 * Planilha1!$B$11</f>
-        <v>3772315816.4958315</v>
-      </c>
-      <c r="L15" s="16">
+        <v>620</v>
+      </c>
+      <c r="I15" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J15" s="13">
+        <f>B15*CoefFatorial!$B$2 + C15* CoefFatorial!$B$3 + D15 * CoefFatorial!$B$4 + E15 * CoefFatorial!$B$5 + F15 * CoefFatorial!$B$6 + G15 * CoefFatorial!$B$7 + H15 * CoefFatorial!$B$8</f>
+        <v>2263767488.7975826</v>
+      </c>
+      <c r="K15" t="str">
+        <f>IF(J15 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8">
-        <v>21283</v>
+        <v>30210</v>
       </c>
       <c r="C16" s="7">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D16" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" s="8">
         <v>0</v>
@@ -6592,689 +6603,656 @@
         <v>5</v>
       </c>
       <c r="G16" s="7">
-        <v>28.5</v>
+        <v>7.7934600000000005</v>
       </c>
       <c r="H16" s="7">
-        <v>7.711850000000001</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J16" s="7">
-        <v>617</v>
-      </c>
-      <c r="K16" s="13">
-        <f>B16*Planilha1!$B$2 + C16 * Planilha1!$B$3 + D16 *Planilha1!$B$4 + E16 * Planilha1!$B$5 + G16 * Planilha1!$B$7 + H16 * Planilha1!$B$8 + I16 * Planilha1!$B$10 + J16 * Planilha1!$B$11</f>
-        <v>2657609059.9217753</v>
-      </c>
-      <c r="L16" s="16">
+        <v>583</v>
+      </c>
+      <c r="I16" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J16" s="13">
+        <f>B16*CoefFatorial!$B$2 + C16* CoefFatorial!$B$3 + D16 * CoefFatorial!$B$4 + E16 * CoefFatorial!$B$5 + F16 * CoefFatorial!$B$6 + G16 * CoefFatorial!$B$7 + H16 * CoefFatorial!$B$8</f>
+        <v>3772315634.6495113</v>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(J16 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B17" s="8">
-        <v>57914</v>
+        <v>161489</v>
       </c>
       <c r="C17" s="7">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="D17" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E17" s="8">
-        <v>2439</v>
+        <v>6031</v>
       </c>
       <c r="F17" s="7">
         <v>5</v>
       </c>
       <c r="G17" s="7">
-        <v>33.700000000000003</v>
+        <v>8.0029760000000003</v>
       </c>
       <c r="H17" s="7">
-        <v>8.5876780000000004</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="J17" s="7">
-        <v>611.5</v>
-      </c>
-      <c r="K17" s="13">
-        <f>B17*Planilha1!$B$2 + C17 * Planilha1!$B$3 + D17 *Planilha1!$B$4 + E17 * Planilha1!$B$5 + G17 * Planilha1!$B$7 + H17 * Planilha1!$B$8 + I17 * Planilha1!$B$10 + J17 * Planilha1!$B$11</f>
-        <v>7245279006.6256294</v>
-      </c>
-      <c r="L17" s="16">
+        <v>647.5</v>
+      </c>
+      <c r="I17" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J17" s="13">
+        <f>B17*CoefFatorial!$B$2 + C17* CoefFatorial!$B$3 + D17 * CoefFatorial!$B$4 + E17 * CoefFatorial!$B$5 + F17 * CoefFatorial!$B$6 + G17 * CoefFatorial!$B$7 + H17 * CoefFatorial!$B$8</f>
+        <v>20198609892.372814</v>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(J17 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8">
-        <v>106177</v>
+        <v>105890</v>
       </c>
       <c r="C18" s="7">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D18" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="8">
-        <v>4463</v>
+        <v>4206</v>
       </c>
       <c r="F18" s="7">
         <v>5</v>
       </c>
       <c r="G18" s="7">
-        <v>32.6</v>
+        <v>8.0344280000000001</v>
       </c>
       <c r="H18" s="7">
-        <v>8.705292</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7.3</v>
-      </c>
-      <c r="J18" s="7">
-        <v>683</v>
-      </c>
-      <c r="K18" s="13">
-        <f>B18*Planilha1!$B$2 + C18 * Planilha1!$B$3 + D18 *Planilha1!$B$4 + E18 * Planilha1!$B$5 + G18 * Planilha1!$B$7 + H18 * Planilha1!$B$8 + I18 * Planilha1!$B$10 + J18 * Planilha1!$B$11</f>
-        <v>13283111305.09473</v>
-      </c>
-      <c r="L18" s="16">
+        <v>707.5</v>
+      </c>
+      <c r="I18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J18" s="13">
+        <f>B18*CoefFatorial!$B$2 + C18* CoefFatorial!$B$3 + D18 * CoefFatorial!$B$4 + E18 * CoefFatorial!$B$5 + F18 * CoefFatorial!$B$6 + G18 * CoefFatorial!$B$7 + H18 * CoefFatorial!$B$8</f>
+        <v>13245841012.525385</v>
+      </c>
+      <c r="K18" t="str">
+        <f>IF(J18 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B19" s="8">
-        <v>206956</v>
+        <v>129711</v>
       </c>
       <c r="C19" s="7">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="D19" s="7">
         <v>6</v>
       </c>
       <c r="E19" s="8">
-        <v>8707</v>
+        <v>5067</v>
       </c>
       <c r="F19" s="7">
         <v>5</v>
       </c>
       <c r="G19" s="7">
-        <v>37.700000000000003</v>
+        <v>8.0344280000000001</v>
       </c>
       <c r="H19" s="7">
-        <v>8.7229189999999992</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6</v>
-      </c>
-      <c r="J19" s="7">
-        <v>614.5</v>
-      </c>
-      <c r="K19" s="13">
-        <f>B19*Planilha1!$B$2 + C19 * Planilha1!$B$3 + D19 *Planilha1!$B$4 + E19 * Planilha1!$B$5 + G19 * Planilha1!$B$7 + H19 * Planilha1!$B$8 + I19 * Planilha1!$B$10 + J19 * Planilha1!$B$11</f>
-        <v>25890945859.562416</v>
-      </c>
-      <c r="L19" s="16">
+        <v>707.5</v>
+      </c>
+      <c r="I19" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J19" s="13">
+        <f>B19*CoefFatorial!$B$2 + C19* CoefFatorial!$B$3 + D19 * CoefFatorial!$B$4 + E19 * CoefFatorial!$B$5 + F19 * CoefFatorial!$B$6 + G19 * CoefFatorial!$B$7 + H19 * CoefFatorial!$B$8</f>
+        <v>16225146380.295984</v>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(J19 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+      <c r="N19" s="16">
+        <v>17812511298.545502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B20" s="8">
-        <v>108031</v>
+        <v>22858</v>
       </c>
       <c r="C20" s="7">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D20" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E20" s="8">
-        <v>4268</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" s="7">
-        <v>32.4</v>
+        <v>8.059056</v>
       </c>
       <c r="H20" s="7">
-        <v>8.7360480000000003</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="J20" s="7">
-        <v>630</v>
-      </c>
-      <c r="K20" s="13">
-        <f>B20*Planilha1!$B$2 + C20 * Planilha1!$B$3 + D20 *Planilha1!$B$4 + E20 * Planilha1!$B$5 + G20 * Planilha1!$B$7 + H20 * Planilha1!$B$8 + I20 * Planilha1!$B$10 + J20 * Planilha1!$B$11</f>
-        <v>13513532033.553373</v>
-      </c>
-      <c r="L20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>682.5</v>
+      </c>
+      <c r="I20" s="15">
+        <v>2</v>
+      </c>
+      <c r="J20" s="13">
+        <f>B20*CoefFatorial!$B$2 + C20* CoefFatorial!$B$3 + D20 * CoefFatorial!$B$4 + E20 * CoefFatorial!$B$5 + F20 * CoefFatorial!$B$6 + G20 * CoefFatorial!$B$7 + H20 * CoefFatorial!$B$8</f>
+        <v>2854275353.0743384</v>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(J20 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B21" s="8">
-        <v>26324</v>
+        <v>45994</v>
       </c>
       <c r="C21" s="7">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D21" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E21" s="8">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F21" s="7">
         <v>5</v>
       </c>
       <c r="G21" s="7">
-        <v>23.45</v>
+        <v>8.1263920000000009</v>
       </c>
       <c r="H21" s="7">
-        <v>8.6807600000000011</v>
-      </c>
-      <c r="I21" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J21" s="7">
-        <v>714</v>
-      </c>
-      <c r="K21" s="13">
-        <f>B21*Planilha1!$B$2 + C21 * Planilha1!$B$3 + D21 *Planilha1!$B$4 + E21 * Planilha1!$B$5 + G21 * Planilha1!$B$7 + H21 * Planilha1!$B$8 + I21 * Planilha1!$B$10 + J21 * Planilha1!$B$11</f>
-        <v>3287074673.3344827</v>
-      </c>
-      <c r="L21" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>717.5</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <f>B21*CoefFatorial!$B$2 + C21* CoefFatorial!$B$3 + D21 * CoefFatorial!$B$4 + E21 * CoefFatorial!$B$5 + F21 * CoefFatorial!$B$6 + G21 * CoefFatorial!$B$7 + H21 * CoefFatorial!$B$8</f>
+        <v>5753653055.2449112</v>
+      </c>
+      <c r="K21" t="str">
+        <f>IF(J21 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B22" s="8">
-        <v>30386</v>
+        <v>238154</v>
       </c>
       <c r="C22" s="7">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D22" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E22" s="8">
-        <v>0</v>
+        <v>10158</v>
       </c>
       <c r="F22" s="7">
         <v>5</v>
       </c>
       <c r="G22" s="7">
-        <v>23.45</v>
+        <v>8.2909159999999993</v>
       </c>
       <c r="H22" s="7">
-        <v>8.6807600000000011</v>
-      </c>
-      <c r="I22" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J22" s="7">
-        <v>714</v>
-      </c>
-      <c r="K22" s="13">
-        <f>B22*Planilha1!$B$2 + C22 * Planilha1!$B$3 + D22 *Planilha1!$B$4 + E22 * Planilha1!$B$5 + G22 * Planilha1!$B$7 + H22 * Planilha1!$B$8 + I22 * Planilha1!$B$10 + J22 * Planilha1!$B$11</f>
-        <v>3794293904.686883</v>
-      </c>
-      <c r="L22" s="16">
+        <v>588.5</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <f>B22*CoefFatorial!$B$2 + C22* CoefFatorial!$B$3 + D22 * CoefFatorial!$B$4 + E22 * CoefFatorial!$B$5 + F22 * CoefFatorial!$B$6 + G22 * CoefFatorial!$B$7 + H22 * CoefFatorial!$B$8</f>
+        <v>29794690928.993999</v>
+      </c>
+      <c r="K22" t="str">
+        <f>IF(J22 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="9">
+        <v>894310</v>
+      </c>
+      <c r="C23" s="10">
+        <v>525</v>
+      </c>
+      <c r="D23" s="10">
+        <v>12</v>
+      </c>
+      <c r="E23" s="9">
+        <v>35185</v>
+      </c>
+      <c r="F23" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="8">
-        <v>27219</v>
-      </c>
-      <c r="C23" s="7">
-        <v>165</v>
-      </c>
-      <c r="D23" s="7">
-        <v>24</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>5</v>
-      </c>
-      <c r="G23" s="7">
-        <v>23.9</v>
-      </c>
-      <c r="H23" s="7">
-        <v>8.6807600000000011</v>
-      </c>
-      <c r="I23" s="7">
-        <v>9.4</v>
-      </c>
-      <c r="J23" s="7">
-        <v>642</v>
-      </c>
-      <c r="K23" s="13">
-        <f>B23*Planilha1!$B$2 + C23 * Planilha1!$B$3 + D23 *Planilha1!$B$4 + E23 * Planilha1!$B$5 + G23 * Planilha1!$B$7 + H23 * Planilha1!$B$8 + I23 * Planilha1!$B$10 + J23 * Planilha1!$B$11</f>
-        <v>3398832144.8409576</v>
-      </c>
-      <c r="L23" s="16">
+      <c r="G23" s="10">
+        <v>8.5647600000000015</v>
+      </c>
+      <c r="H23" s="10">
+        <v>460</v>
+      </c>
+      <c r="I23" s="10">
+        <v>3</v>
+      </c>
+      <c r="J23" s="14">
+        <f>B23*CoefFatorial!$B$2 + C23* CoefFatorial!$B$3 + D23 * CoefFatorial!$B$4 + E23 * CoefFatorial!$B$5 + F23 * CoefFatorial!$B$6 + G23 * CoefFatorial!$B$7 + H23 * CoefFatorial!$B$8</f>
+        <v>111867790420.81</v>
+      </c>
+      <c r="K23" t="str">
+        <f>IF(J23 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1316250</v>
+      </c>
+      <c r="C24" s="10">
+        <v>610</v>
+      </c>
+      <c r="D24" s="10">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9">
+        <v>50749</v>
+      </c>
+      <c r="F24" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8">
-        <v>25246</v>
-      </c>
-      <c r="C24" s="7">
-        <v>174</v>
-      </c>
-      <c r="D24" s="7">
-        <v>26</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>5</v>
-      </c>
-      <c r="G24" s="7">
-        <v>29</v>
-      </c>
-      <c r="H24" s="7">
-        <v>8.6855560000000001</v>
-      </c>
-      <c r="I24" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J24" s="7">
-        <v>612.5</v>
-      </c>
-      <c r="K24" s="13">
-        <f>B24*Planilha1!$B$2 + C24 * Planilha1!$B$3 + D24 *Planilha1!$B$4 + E24 * Planilha1!$B$5 + G24 * Planilha1!$B$7 + H24 * Planilha1!$B$8 + I24 * Planilha1!$B$10 + J24 * Planilha1!$B$11</f>
-        <v>3152465207.0550098</v>
-      </c>
-      <c r="L24" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G24" s="10">
+        <v>8.5864399999999996</v>
+      </c>
+      <c r="H24" s="10">
+        <v>553.5</v>
+      </c>
+      <c r="I24" s="10">
+        <v>3</v>
+      </c>
+      <c r="J24" s="14">
+        <f>B24*CoefFatorial!$B$2 + C24* CoefFatorial!$B$3 + D24 * CoefFatorial!$B$4 + E24 * CoefFatorial!$B$5 + F24 * CoefFatorial!$B$6 + G24 * CoefFatorial!$B$7 + H24 * CoefFatorial!$B$8</f>
+        <v>164641802914.43256</v>
+      </c>
+      <c r="K24" t="str">
+        <f>IF(J24 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B25" s="8">
-        <v>47111</v>
+        <v>57914</v>
       </c>
       <c r="C25" s="7">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="D25" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" s="8">
-        <v>2888</v>
+        <v>2439</v>
       </c>
       <c r="F25" s="7">
         <v>5</v>
       </c>
       <c r="G25" s="7">
-        <v>29.57</v>
+        <v>8.5876780000000004</v>
       </c>
       <c r="H25" s="7">
-        <v>9.1507149999999999</v>
-      </c>
-      <c r="I25" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J25" s="7">
-        <v>675.5</v>
-      </c>
-      <c r="K25" s="13">
-        <f>B25*Planilha1!$B$2 + C25 * Planilha1!$B$3 + D25 *Planilha1!$B$4 + E25 * Planilha1!$B$5 + G25 * Planilha1!$B$7 + H25 * Planilha1!$B$8 + I25 * Planilha1!$B$10 + J25 * Planilha1!$B$11</f>
-        <v>5898812988.8965263</v>
-      </c>
-      <c r="L25" s="16">
+        <v>611.5</v>
+      </c>
+      <c r="I25" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J25" s="13">
+        <f>B25*CoefFatorial!$B$2 + C25* CoefFatorial!$B$3 + D25 * CoefFatorial!$B$4 + E25 * CoefFatorial!$B$5 + F25 * CoefFatorial!$B$6 + G25 * CoefFatorial!$B$7 + H25 * CoefFatorial!$B$8</f>
+        <v>7245278736.4271193</v>
+      </c>
+      <c r="K25" t="str">
+        <f>IF(J25 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B26" s="8">
-        <v>140955</v>
+        <v>245979</v>
       </c>
       <c r="C26" s="7">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="D26" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="8">
-        <v>5682</v>
+        <v>9949</v>
       </c>
       <c r="F26" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" s="7">
-        <v>44.9</v>
+        <v>8.6025600000000004</v>
       </c>
       <c r="H26" s="7">
-        <v>9.2313240000000008</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="J26" s="7">
-        <v>675</v>
-      </c>
-      <c r="K26" s="13">
-        <f>B26*Planilha1!$B$2 + C26 * Planilha1!$B$3 + D26 *Planilha1!$B$4 + E26 * Planilha1!$B$5 + G26 * Planilha1!$B$7 + H26 * Planilha1!$B$8 + I26 * Planilha1!$B$10 + J26 * Planilha1!$B$11</f>
-        <v>17632608538.082325</v>
-      </c>
-      <c r="L26" s="16">
+        <v>580</v>
+      </c>
+      <c r="I26" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J26" s="13">
+        <f>B26*CoefFatorial!$B$2 + C26* CoefFatorial!$B$3 + D26 * CoefFatorial!$B$4 + E26 * CoefFatorial!$B$5 + F26 * CoefFatorial!$B$6 + G26 * CoefFatorial!$B$7 + H26 * CoefFatorial!$B$8</f>
+        <v>30770639282.002972</v>
+      </c>
+      <c r="K26" t="str">
+        <f>IF(J26 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B27" s="8">
-        <v>101248</v>
+        <v>26324</v>
       </c>
       <c r="C27" s="7">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="D27" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E27" s="8">
-        <v>4102</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7">
         <v>5</v>
       </c>
       <c r="G27" s="7">
-        <v>44.9</v>
+        <v>8.6807600000000011</v>
       </c>
       <c r="H27" s="7">
-        <v>9.2107100000000006</v>
-      </c>
-      <c r="I27" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="J27" s="7">
-        <v>690</v>
-      </c>
-      <c r="K27" s="13">
-        <f>B27*Planilha1!$B$2 + C27 * Planilha1!$B$3 + D27 *Planilha1!$B$4 + E27 * Planilha1!$B$5 + G27 * Planilha1!$B$7 + H27 * Planilha1!$B$8 + I27 * Planilha1!$B$10 + J27 * Planilha1!$B$11</f>
-        <v>12665626563.671076</v>
-      </c>
-      <c r="L27" s="16">
+        <v>714</v>
+      </c>
+      <c r="I27" s="15">
+        <v>2</v>
+      </c>
+      <c r="J27" s="13">
+        <f>B27*CoefFatorial!$B$2 + C27* CoefFatorial!$B$3 + D27 * CoefFatorial!$B$4 + E27 * CoefFatorial!$B$5 + F27 * CoefFatorial!$B$6 + G27 * CoefFatorial!$B$7 + H27 * CoefFatorial!$B$8</f>
+        <v>3287074490.4491076</v>
+      </c>
+      <c r="K27" t="str">
+        <f>IF(J27 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="8">
+        <v>30386</v>
+      </c>
+      <c r="C28" s="7">
+        <v>165</v>
+      </c>
+      <c r="D28" s="7">
+        <v>24</v>
+      </c>
+      <c r="E28" s="8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="8">
-        <v>137038</v>
-      </c>
-      <c r="C28" s="7">
-        <v>300</v>
-      </c>
-      <c r="D28" s="7">
-        <v>11</v>
-      </c>
-      <c r="E28" s="8">
-        <v>5495</v>
       </c>
       <c r="F28" s="7">
         <v>5</v>
       </c>
       <c r="G28" s="7">
-        <v>44.9</v>
+        <v>8.6807600000000011</v>
       </c>
       <c r="H28" s="7">
-        <v>9.2107100000000006</v>
-      </c>
-      <c r="I28" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="J28" s="7">
-        <v>690</v>
-      </c>
-      <c r="K28" s="13">
-        <f>B28*Planilha1!$B$2 + C28 * Planilha1!$B$3 + D28 *Planilha1!$B$4 + E28 * Planilha1!$B$5 + G28 * Planilha1!$B$7 + H28 * Planilha1!$B$8 + I28 * Planilha1!$B$10 + J28 * Planilha1!$B$11</f>
-        <v>17142454498.511774</v>
-      </c>
-      <c r="L28" s="16">
+        <v>714</v>
+      </c>
+      <c r="I28" s="15">
+        <v>2</v>
+      </c>
+      <c r="J28" s="13">
+        <f>B28*CoefFatorial!$B$2 + C28* CoefFatorial!$B$3 + D28 * CoefFatorial!$B$4 + E28 * CoefFatorial!$B$5 + F28 * CoefFatorial!$B$6 + G28 * CoefFatorial!$B$7 + H28 * CoefFatorial!$B$8</f>
+        <v>3794293721.8015079</v>
+      </c>
+      <c r="K28" t="str">
+        <f>IF(J28 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="8">
+        <v>27219</v>
+      </c>
+      <c r="C29" s="7">
+        <v>165</v>
+      </c>
+      <c r="D29" s="7">
+        <v>24</v>
+      </c>
+      <c r="E29" s="8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="8">
-        <v>349389</v>
-      </c>
-      <c r="C29" s="7">
-        <v>340</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4</v>
-      </c>
-      <c r="E29" s="8">
-        <v>19213</v>
       </c>
       <c r="F29" s="7">
         <v>5</v>
       </c>
       <c r="G29" s="7">
-        <v>51</v>
+        <v>8.6807600000000011</v>
       </c>
       <c r="H29" s="7">
-        <v>9.3149540000000002</v>
-      </c>
-      <c r="I29" s="7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J29" s="7">
-        <v>679</v>
-      </c>
-      <c r="K29" s="13">
-        <f>B29*Planilha1!$B$2 + C29 * Planilha1!$B$3 + D29 *Planilha1!$B$4 + E29 * Planilha1!$B$5 + G29 * Planilha1!$B$7 + H29 * Planilha1!$B$8 + I29 * Planilha1!$B$10 + J29 * Planilha1!$B$11</f>
-        <v>43734949541.803261</v>
-      </c>
-      <c r="L29" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+      <c r="I29" s="15">
+        <v>2</v>
+      </c>
+      <c r="J29" s="13">
+        <f>B29*CoefFatorial!$B$2 + C29* CoefFatorial!$B$3 + D29 * CoefFatorial!$B$4 + E29 * CoefFatorial!$B$5 + F29 * CoefFatorial!$B$6 + G29 * CoefFatorial!$B$7 + H29 * CoefFatorial!$B$8</f>
+        <v>3398831958.4600077</v>
+      </c>
+      <c r="K29" t="str">
+        <f>IF(J29 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8">
-        <v>185115</v>
+        <v>25246</v>
       </c>
       <c r="C30" s="7">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="D30" s="7">
+        <v>26</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>5</v>
+      </c>
+      <c r="G30" s="7">
+        <v>8.6855560000000001</v>
+      </c>
+      <c r="H30" s="7">
+        <v>612.5</v>
+      </c>
+      <c r="I30" s="15">
+        <v>2</v>
+      </c>
+      <c r="J30" s="13">
+        <f>B30*CoefFatorial!$B$2 + C30* CoefFatorial!$B$3 + D30 * CoefFatorial!$B$4 + E30 * CoefFatorial!$B$5 + F30 * CoefFatorial!$B$6 + G30 * CoefFatorial!$B$7 + H30 * CoefFatorial!$B$8</f>
+        <v>3152464977.4324498</v>
+      </c>
+      <c r="K30" t="str">
+        <f>IF(J30 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="8">
+        <v>106177</v>
+      </c>
+      <c r="C31" s="7">
+        <v>190</v>
+      </c>
+      <c r="D31" s="7">
         <v>9</v>
       </c>
-      <c r="E30" s="8">
-        <v>8076</v>
-      </c>
-      <c r="F30" s="7">
-        <v>4</v>
-      </c>
-      <c r="G30" s="7">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="H30" s="7">
-        <v>9.5053140000000003</v>
-      </c>
-      <c r="I30" s="7">
-        <v>6.9</v>
-      </c>
-      <c r="J30" s="7">
-        <v>668</v>
-      </c>
-      <c r="K30" s="13">
-        <f>B30*Planilha1!$B$2 + C30 * Planilha1!$B$3 + D30 *Planilha1!$B$4 + E30 * Planilha1!$B$5 + G30 * Planilha1!$B$7 + H30 * Planilha1!$B$8 + I30 * Planilha1!$B$10 + J30 * Planilha1!$B$11</f>
-        <v>23160162573.591789</v>
-      </c>
-      <c r="L30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="8">
-        <v>105890</v>
-      </c>
-      <c r="C31" s="7">
-        <v>150</v>
-      </c>
-      <c r="D31" s="7">
-        <v>8</v>
-      </c>
       <c r="E31" s="8">
-        <v>4206</v>
+        <v>4463</v>
       </c>
       <c r="F31" s="7">
         <v>5</v>
       </c>
       <c r="G31" s="7">
-        <v>25.5</v>
+        <v>8.705292</v>
       </c>
       <c r="H31" s="7">
-        <v>8.0344280000000001</v>
-      </c>
-      <c r="I31" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="J31" s="7">
-        <v>707.5</v>
-      </c>
-      <c r="K31" s="13">
-        <f>B31*Planilha1!$B$2 + C31 * Planilha1!$B$3 + D31 *Planilha1!$B$4 + E31 * Planilha1!$B$5 + G31 * Planilha1!$B$7 + H31 * Planilha1!$B$8 + I31 * Planilha1!$B$10 + J31 * Planilha1!$B$11</f>
-        <v>13245841212.601503</v>
-      </c>
-      <c r="L31" s="16">
+        <v>683</v>
+      </c>
+      <c r="I31" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J31" s="13">
+        <f>B31*CoefFatorial!$B$2 + C31* CoefFatorial!$B$3 + D31 * CoefFatorial!$B$4 + E31 * CoefFatorial!$B$5 + F31 * CoefFatorial!$B$6 + G31 * CoefFatorial!$B$7 + H31 * CoefFatorial!$B$8</f>
+        <v>13283111044.89332</v>
+      </c>
+      <c r="K31" t="str">
+        <f>IF(J31 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B32" s="8">
-        <v>129711</v>
+        <v>206956</v>
       </c>
       <c r="C32" s="7">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="D32" s="7">
         <v>6</v>
       </c>
       <c r="E32" s="8">
-        <v>5067</v>
+        <v>8707</v>
       </c>
       <c r="F32" s="7">
         <v>5</v>
       </c>
       <c r="G32" s="7">
-        <v>25.5</v>
+        <v>8.7229189999999992</v>
       </c>
       <c r="H32" s="7">
-        <v>8.0344280000000001</v>
-      </c>
-      <c r="I32" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="J32" s="7">
-        <v>707.5</v>
-      </c>
-      <c r="K32" s="13">
-        <f>B32*Planilha1!$B$2 + C32 * Planilha1!$B$3 + D32 *Planilha1!$B$4 + E32 * Planilha1!$B$5 + G32 * Planilha1!$B$7 + H32 * Planilha1!$B$8 + I32 * Planilha1!$B$10 + J32 * Planilha1!$B$11</f>
-        <v>16225146580.372103</v>
-      </c>
-      <c r="L32" s="16">
+        <v>614.5</v>
+      </c>
+      <c r="I32" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J32" s="13">
+        <f>B32*CoefFatorial!$B$2 + C32* CoefFatorial!$B$3 + D32 * CoefFatorial!$B$4 + E32 * CoefFatorial!$B$5 + F32 * CoefFatorial!$B$6 + G32 * CoefFatorial!$B$7 + H32 * CoefFatorial!$B$8</f>
+        <v>25890945556.014824</v>
+      </c>
+      <c r="K32" t="str">
+        <f>IF(J32 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B33" s="8">
-        <v>238154</v>
+        <v>108031</v>
       </c>
       <c r="C33" s="7">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D33" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E33" s="8">
-        <v>10158</v>
+        <v>4268</v>
       </c>
       <c r="F33" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33" s="7">
-        <v>25.5</v>
+        <v>8.7360480000000003</v>
       </c>
       <c r="H33" s="7">
-        <v>8.2909159999999993</v>
-      </c>
-      <c r="I33" s="7">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="J33" s="7">
-        <v>588.5</v>
-      </c>
-      <c r="K33" s="13">
-        <f>B33*Planilha1!$B$2 + C33 * Planilha1!$B$3 + D33 *Planilha1!$B$4 + E33 * Planilha1!$B$5 + G33 * Planilha1!$B$7 + H33 * Planilha1!$B$8 + I33 * Planilha1!$B$10 + J33 * Planilha1!$B$11</f>
-        <v>29794691128.65184</v>
-      </c>
-      <c r="L33" s="16">
+        <v>630</v>
+      </c>
+      <c r="I33" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J33" s="13">
+        <f>B33*CoefFatorial!$B$2 + C33* CoefFatorial!$B$3 + D33 * CoefFatorial!$B$4 + E33 * CoefFatorial!$B$5 + F33 * CoefFatorial!$B$6 + G33 * CoefFatorial!$B$7 + H33 * CoefFatorial!$B$8</f>
+        <v>13513531776.038574</v>
+      </c>
+      <c r="K33" t="str">
+        <f>IF(J33 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>18</v>
       </c>
@@ -7294,1974 +7272,569 @@
         <v>5</v>
       </c>
       <c r="G34" s="7">
-        <v>40.799999999999997</v>
+        <v>8.7858419999999988</v>
       </c>
       <c r="H34" s="7">
-        <v>8.7858419999999988</v>
-      </c>
-      <c r="I34" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="J34" s="7">
         <v>589</v>
       </c>
-      <c r="K34" s="13">
-        <f>B34*Planilha1!$B$2 + C34 * Planilha1!$B$3 + D34 *Planilha1!$B$4 + E34 * Planilha1!$B$5 + G34 * Planilha1!$B$7 + H34 * Planilha1!$B$8 + I34 * Planilha1!$B$10 + J34 * Planilha1!$B$11</f>
-        <v>19216062831.345264</v>
-      </c>
-      <c r="L34" s="16">
+      <c r="I34" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J34" s="13">
+        <f>B34*CoefFatorial!$B$2 + C34* CoefFatorial!$B$3 + D34 * CoefFatorial!$B$4 + E34 * CoefFatorial!$B$5 + F34 * CoefFatorial!$B$6 + G34 * CoefFatorial!$B$7 + H34 * CoefFatorial!$B$8</f>
+        <v>19216062502.17173</v>
+      </c>
+      <c r="K34" t="str">
+        <f>IF(J34 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="8">
-        <v>518430</v>
+        <v>322651</v>
       </c>
       <c r="C35" s="7">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="D35" s="7">
+        <v>6</v>
+      </c>
+      <c r="E35" s="8">
+        <v>13412</v>
+      </c>
+      <c r="F35" s="7">
+        <v>5</v>
+      </c>
+      <c r="G35" s="7">
+        <v>8.8422030000000014</v>
+      </c>
+      <c r="H35" s="7">
+        <v>570.5</v>
+      </c>
+      <c r="I35" s="15">
+        <v>1</v>
+      </c>
+      <c r="J35" s="13">
+        <f>B35*CoefFatorial!$B$2 + C35* CoefFatorial!$B$3 + D35 * CoefFatorial!$B$4 + E35 * CoefFatorial!$B$5 + F35 * CoefFatorial!$B$6 + G35 * CoefFatorial!$B$7 + H35 * CoefFatorial!$B$8</f>
+        <v>40363899550.79673</v>
+      </c>
+      <c r="K35" t="str">
+        <f>IF(J35 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="8">
+        <v>211467</v>
+      </c>
+      <c r="C36" s="7">
+        <v>354</v>
+      </c>
+      <c r="D36" s="7">
+        <v>9</v>
+      </c>
+      <c r="E36" s="8">
+        <v>8714</v>
+      </c>
+      <c r="F36" s="7">
+        <v>5</v>
+      </c>
+      <c r="G36" s="7">
+        <v>8.8746840000000002</v>
+      </c>
+      <c r="H36" s="7">
+        <v>626.5</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
+        <f>B36*CoefFatorial!$B$2 + C36* CoefFatorial!$B$3 + D36 * CoefFatorial!$B$4 + E36 * CoefFatorial!$B$5 + F36 * CoefFatorial!$B$6 + G36 * CoefFatorial!$B$7 + H36 * CoefFatorial!$B$8</f>
+        <v>26454275416.730877</v>
+      </c>
+      <c r="K36" t="str">
+        <f>IF(J36 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="8">
+        <v>45220</v>
+      </c>
+      <c r="C37" s="7">
+        <v>300</v>
+      </c>
+      <c r="D37" s="7">
+        <v>24</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>5</v>
+      </c>
+      <c r="G37" s="7">
+        <v>8.9410500000000006</v>
+      </c>
+      <c r="H37" s="7">
+        <v>544</v>
+      </c>
+      <c r="I37" s="15">
         <v>2</v>
       </c>
-      <c r="E35" s="8">
-        <v>20969</v>
-      </c>
-      <c r="F35" s="7">
-        <v>7</v>
-      </c>
-      <c r="G35" s="7">
-        <v>51</v>
-      </c>
-      <c r="H35" s="7">
-        <v>9.9741099999999996</v>
-      </c>
-      <c r="I35" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="J35" s="7">
-        <v>646.5</v>
-      </c>
-      <c r="K35" s="13">
-        <f>B35*Planilha1!$B$2 + C35 * Planilha1!$B$3 + D35 *Planilha1!$B$4 + E35 * Planilha1!$B$5 + G35 * Planilha1!$B$7 + H35 * Planilha1!$B$8 + I35 * Planilha1!$B$10 + J35 * Planilha1!$B$11</f>
-        <v>64852761022.463287</v>
-      </c>
-      <c r="L35" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="8">
-        <v>436302</v>
-      </c>
-      <c r="C36" s="7">
-        <v>340</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="J37" s="13">
+        <f>B37*CoefFatorial!$B$2 + C37* CoefFatorial!$B$3 + D37 * CoefFatorial!$B$4 + E37 * CoefFatorial!$B$5 + F37 * CoefFatorial!$B$6 + G37 * CoefFatorial!$B$7 + H37 * CoefFatorial!$B$8</f>
+        <v>5646610923.7622595</v>
+      </c>
+      <c r="K37" t="str">
+        <f>IF(J37 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="8">
+        <v>47111</v>
+      </c>
+      <c r="C38" s="7">
+        <v>218</v>
+      </c>
+      <c r="D38" s="7">
+        <v>19</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2888</v>
+      </c>
+      <c r="F38" s="7">
         <v>5</v>
       </c>
-      <c r="E36" s="8">
-        <v>16804</v>
-      </c>
-      <c r="F36" s="7">
-        <v>7</v>
-      </c>
-      <c r="G36" s="7">
-        <v>51</v>
-      </c>
-      <c r="H36" s="7">
-        <v>9.9741099999999996</v>
-      </c>
-      <c r="I36" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="J36" s="7">
-        <v>595</v>
-      </c>
-      <c r="K36" s="13">
-        <f>B36*Planilha1!$B$2 + C36 * Planilha1!$B$3 + D36 *Planilha1!$B$4 + E36 * Planilha1!$B$5 + G36 * Planilha1!$B$7 + H36 * Planilha1!$B$8 + I36 * Planilha1!$B$10 + J36 * Planilha1!$B$11</f>
-        <v>54574306368.746239</v>
-      </c>
-      <c r="L36" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="9">
-        <v>1316250</v>
-      </c>
-      <c r="C37" s="10">
-        <v>610</v>
-      </c>
-      <c r="D37" s="10">
-        <v>8</v>
-      </c>
-      <c r="E37" s="9">
-        <v>50749</v>
-      </c>
-      <c r="F37" s="10">
-        <v>2</v>
-      </c>
-      <c r="G37" s="10">
-        <v>56.1</v>
-      </c>
-      <c r="H37" s="10">
-        <v>8.5864399999999996</v>
-      </c>
-      <c r="I37" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="J37" s="10">
-        <v>553.5</v>
-      </c>
-      <c r="K37" s="14">
-        <f>B37*Planilha1!$B$2 + C37 * Planilha1!$B$3 + D37 *Planilha1!$B$4 + E37 * Planilha1!$B$5 + G37 * Planilha1!$B$7 + H37 * Planilha1!$B$8 + I37 * Planilha1!$B$10 + J37 * Planilha1!$B$11</f>
-        <v>164641803372.40668</v>
-      </c>
-      <c r="L37" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="9">
-        <v>894310</v>
-      </c>
-      <c r="C38" s="10">
-        <v>525</v>
-      </c>
-      <c r="D38" s="10">
-        <v>12</v>
-      </c>
-      <c r="E38" s="9">
-        <v>35185</v>
-      </c>
-      <c r="F38" s="10">
-        <v>2</v>
-      </c>
-      <c r="G38" s="10">
-        <v>54.1</v>
-      </c>
-      <c r="H38" s="10">
-        <v>8.5647600000000015</v>
-      </c>
-      <c r="I38" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="J38" s="10">
-        <v>460</v>
-      </c>
-      <c r="K38" s="14">
-        <f>B38*Planilha1!$B$2 + C38 * Planilha1!$B$3 + D38 *Planilha1!$B$4 + E38 * Planilha1!$B$5 + G38 * Planilha1!$B$7 + H38 * Planilha1!$B$8 + I38 * Planilha1!$B$10 + J38 * Planilha1!$B$11</f>
-        <v>111867790862.005</v>
-      </c>
-      <c r="L38" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="9">
-        <v>1204150</v>
-      </c>
-      <c r="C39" s="10">
-        <v>630</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="G38" s="7">
+        <v>9.1507149999999999</v>
+      </c>
+      <c r="H38" s="7">
+        <v>675.5</v>
+      </c>
+      <c r="I38" s="15">
         <v>0</v>
       </c>
-      <c r="E39" s="9">
-        <v>45630</v>
-      </c>
-      <c r="F39" s="10">
-        <v>4</v>
-      </c>
-      <c r="G39" s="10">
-        <v>86.7</v>
-      </c>
-      <c r="H39" s="10">
-        <v>9.7452450000000006</v>
-      </c>
-      <c r="I39" s="10">
-        <v>3.4</v>
-      </c>
-      <c r="J39" s="10">
-        <v>500</v>
-      </c>
-      <c r="K39" s="14">
-        <f>B39*Planilha1!$B$2 + C39 * Planilha1!$B$3 + D39 *Planilha1!$B$4 + E39 * Planilha1!$B$5 + G39 * Planilha1!$B$7 + H39 * Planilha1!$B$8 + I39 * Planilha1!$B$10 + J39 * Planilha1!$B$11</f>
-        <v>150615455748.34927</v>
-      </c>
-      <c r="L39" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J38" s="13">
+        <f>B38*CoefFatorial!$B$2 + C38* CoefFatorial!$B$3 + D38 * CoefFatorial!$B$4 + E38 * CoefFatorial!$B$5 + F38 * CoefFatorial!$B$6 + G38 * CoefFatorial!$B$7 + H38 * CoefFatorial!$B$8</f>
+        <v>5898812754.5813274</v>
+      </c>
+      <c r="K38" t="str">
+        <f>IF(J38 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="8">
+        <v>101248</v>
+      </c>
+      <c r="C39" s="7">
+        <v>300</v>
+      </c>
+      <c r="D39" s="7">
+        <v>13</v>
+      </c>
+      <c r="E39" s="8">
+        <v>4102</v>
+      </c>
+      <c r="F39" s="7">
+        <v>5</v>
+      </c>
+      <c r="G39" s="7">
+        <v>9.2107100000000006</v>
+      </c>
+      <c r="H39" s="7">
+        <v>690</v>
+      </c>
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
+        <f>B39*CoefFatorial!$B$2 + C39* CoefFatorial!$B$3 + D39 * CoefFatorial!$B$4 + E39 * CoefFatorial!$B$5 + F39 * CoefFatorial!$B$6 + G39 * CoefFatorial!$B$7 + H39 * CoefFatorial!$B$8</f>
+        <v>12665626200.325197</v>
+      </c>
+      <c r="K39" t="str">
+        <f>IF(J39 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B40" s="8">
-        <v>211467</v>
+        <v>137038</v>
       </c>
       <c r="C40" s="7">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="D40" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E40" s="8">
-        <v>8714</v>
+        <v>5495</v>
       </c>
       <c r="F40" s="7">
         <v>5</v>
       </c>
       <c r="G40" s="7">
-        <v>47.9</v>
+        <v>9.2107100000000006</v>
       </c>
       <c r="H40" s="7">
-        <v>8.8746840000000002</v>
-      </c>
-      <c r="I40" s="7">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J40" s="7">
-        <v>626.5</v>
-      </c>
-      <c r="K40" s="13">
-        <f>B40*Planilha1!$B$2 + C40 * Planilha1!$B$3 + D40 *Planilha1!$B$4 + E40 * Planilha1!$B$5 + G40 * Planilha1!$B$7 + H40 * Planilha1!$B$8 + I40 * Planilha1!$B$10 + J40 * Planilha1!$B$11</f>
-        <v>26454275800.382915</v>
-      </c>
-      <c r="L40" s="16">
+        <v>690</v>
+      </c>
+      <c r="I40" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J40" s="13">
+        <f>B40*CoefFatorial!$B$2 + C40* CoefFatorial!$B$3 + D40 * CoefFatorial!$B$4 + E40 * CoefFatorial!$B$5 + F40 * CoefFatorial!$B$6 + G40 * CoefFatorial!$B$7 + H40 * CoefFatorial!$B$8</f>
+        <v>17142454135.165895</v>
+      </c>
+      <c r="K40" t="str">
+        <f>IF(J40 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B41" s="8">
-        <v>322651</v>
+        <v>140955</v>
       </c>
       <c r="C41" s="7">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="D41" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E41" s="8">
-        <v>13412</v>
+        <v>5682</v>
       </c>
       <c r="F41" s="7">
         <v>5</v>
       </c>
       <c r="G41" s="7">
-        <v>51</v>
+        <v>9.2313240000000008</v>
       </c>
       <c r="H41" s="7">
-        <v>8.8422030000000014</v>
-      </c>
-      <c r="I41" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="J41" s="7">
-        <v>570.5</v>
-      </c>
-      <c r="K41" s="13">
-        <f>B41*Planilha1!$B$2 + C41 * Planilha1!$B$3 + D41 *Planilha1!$B$4 + E41 * Planilha1!$B$5 + G41 * Planilha1!$B$7 + H41 * Planilha1!$B$8 + I41 * Planilha1!$B$10 + J41 * Planilha1!$B$11</f>
-        <v>40363899964.466644</v>
-      </c>
-      <c r="L41" s="16">
+        <v>675</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="13">
+        <f>B41*CoefFatorial!$B$2 + C41* CoefFatorial!$B$3 + D41 * CoefFatorial!$B$4 + E41 * CoefFatorial!$B$5 + F41 * CoefFatorial!$B$6 + G41 * CoefFatorial!$B$7 + H41 * CoefFatorial!$B$8</f>
+        <v>17632608174.841011</v>
+      </c>
+      <c r="K41" t="str">
+        <f>IF(J41 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Menor</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="8">
+        <v>349389</v>
+      </c>
+      <c r="C42" s="7">
+        <v>340</v>
+      </c>
+      <c r="D42" s="7">
+        <v>4</v>
+      </c>
+      <c r="E42" s="8">
+        <v>19213</v>
+      </c>
+      <c r="F42" s="7">
+        <v>5</v>
+      </c>
+      <c r="G42" s="7">
+        <v>9.3149540000000002</v>
+      </c>
+      <c r="H42" s="7">
+        <v>679</v>
+      </c>
+      <c r="I42" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="8">
-        <v>245979</v>
-      </c>
-      <c r="C42" s="7">
-        <v>333</v>
-      </c>
-      <c r="D42" s="7">
-        <v>12</v>
-      </c>
-      <c r="E42" s="8">
-        <v>9949</v>
-      </c>
-      <c r="F42" s="7">
+      <c r="J42" s="13">
+        <f>B42*CoefFatorial!$B$2 + C42* CoefFatorial!$B$3 + D42 * CoefFatorial!$B$4 + E42 * CoefFatorial!$B$5 + F42 * CoefFatorial!$B$6 + G42 * CoefFatorial!$B$7 + H42 * CoefFatorial!$B$8</f>
+        <v>43734949127.819633</v>
+      </c>
+      <c r="K42" t="str">
+        <f>IF(J42 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="8">
+        <v>185115</v>
+      </c>
+      <c r="C43" s="7">
+        <v>252</v>
+      </c>
+      <c r="D43" s="7">
+        <v>9</v>
+      </c>
+      <c r="E43" s="8">
+        <v>8076</v>
+      </c>
+      <c r="F43" s="7">
         <v>4</v>
       </c>
-      <c r="G42" s="7">
-        <v>44.9</v>
-      </c>
-      <c r="H42" s="7">
-        <v>8.6025600000000004</v>
-      </c>
-      <c r="I42" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="J42" s="7">
-        <v>580</v>
-      </c>
-      <c r="K42" s="13">
-        <f>B42*Planilha1!$B$2 + C42 * Planilha1!$B$3 + D42 *Planilha1!$B$4 + E42 * Planilha1!$B$5 + G42 * Planilha1!$B$7 + H42 * Planilha1!$B$8 + I42 * Planilha1!$B$10 + J42 * Planilha1!$B$11</f>
-        <v>30770639645.563625</v>
-      </c>
-      <c r="L42" s="16">
+      <c r="G43" s="7">
+        <v>9.5053140000000003</v>
+      </c>
+      <c r="H43" s="7">
+        <v>668</v>
+      </c>
+      <c r="I43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="8">
-        <v>45220</v>
-      </c>
-      <c r="C43" s="7">
-        <v>300</v>
-      </c>
-      <c r="D43" s="7">
-        <v>24</v>
-      </c>
-      <c r="E43" s="8">
+      <c r="J43" s="13">
+        <f>B43*CoefFatorial!$B$2 + C43* CoefFatorial!$B$3 + D43 * CoefFatorial!$B$4 + E43 * CoefFatorial!$B$5 + F43 * CoefFatorial!$B$6 + G43 * CoefFatorial!$B$7 + H43 * CoefFatorial!$B$8</f>
+        <v>23160162270.875126</v>
+      </c>
+      <c r="K43" t="str">
+        <f>IF(J43 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1204150</v>
+      </c>
+      <c r="C44" s="10">
+        <v>630</v>
+      </c>
+      <c r="D44" s="10">
         <v>0</v>
       </c>
-      <c r="F43" s="7">
+      <c r="E44" s="9">
+        <v>45630</v>
+      </c>
+      <c r="F44" s="10">
+        <v>4</v>
+      </c>
+      <c r="G44" s="10">
+        <v>9.7452450000000006</v>
+      </c>
+      <c r="H44" s="10">
+        <v>500</v>
+      </c>
+      <c r="I44" s="10">
+        <v>3</v>
+      </c>
+      <c r="J44" s="14">
+        <f>B44*CoefFatorial!$B$2 + C44* CoefFatorial!$B$3 + D44 * CoefFatorial!$B$4 + E44 * CoefFatorial!$B$5 + F44 * CoefFatorial!$B$6 + G44 * CoefFatorial!$B$7 + H44 * CoefFatorial!$B$8</f>
+        <v>150615455038.57037</v>
+      </c>
+      <c r="K44" t="str">
+        <f>IF(J44 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="8">
+        <v>518430</v>
+      </c>
+      <c r="C45" s="7">
+        <v>340</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="8">
+        <v>20969</v>
+      </c>
+      <c r="F45" s="7">
+        <v>7</v>
+      </c>
+      <c r="G45" s="7">
+        <v>9.9741099999999996</v>
+      </c>
+      <c r="H45" s="7">
+        <v>646.5</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1</v>
+      </c>
+      <c r="J45" s="13">
+        <f>B45*CoefFatorial!$B$2 + C45* CoefFatorial!$B$3 + D45 * CoefFatorial!$B$4 + E45 * CoefFatorial!$B$5 + F45 * CoefFatorial!$B$6 + G45 * CoefFatorial!$B$7 + H45 * CoefFatorial!$B$8</f>
+        <v>64852760609.536621</v>
+      </c>
+      <c r="K45" t="str">
+        <f>IF(J45 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="8">
+        <v>436302</v>
+      </c>
+      <c r="C46" s="7">
+        <v>340</v>
+      </c>
+      <c r="D46" s="7">
         <v>5</v>
       </c>
-      <c r="G43" s="7">
-        <v>42.8</v>
-      </c>
-      <c r="H43" s="7">
-        <v>8.9410500000000006</v>
-      </c>
-      <c r="I43" s="7">
-        <v>5.7</v>
-      </c>
-      <c r="J43" s="7">
-        <v>544</v>
-      </c>
-      <c r="K43" s="13">
-        <f>B43*Planilha1!$B$2 + C43 * Planilha1!$B$3 + D43 *Planilha1!$B$4 + E43 * Planilha1!$B$5 + G43 * Planilha1!$B$7 + H43 * Planilha1!$B$8 + I43 * Planilha1!$B$10 + J43 * Planilha1!$B$11</f>
-        <v>5646611269.6103296</v>
-      </c>
-      <c r="L43" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="8">
-        <v>58239</v>
-      </c>
-      <c r="C44" s="7">
-        <v>225</v>
-      </c>
-      <c r="D44" s="7">
-        <v>26</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>4</v>
-      </c>
-      <c r="G44" s="7">
-        <v>23.96</v>
-      </c>
-      <c r="H44" s="7">
-        <v>7.128324000000001</v>
-      </c>
-      <c r="I44" s="7">
-        <v>7.4</v>
-      </c>
-      <c r="J44" s="7">
-        <v>583</v>
-      </c>
-      <c r="K44" s="13">
-        <f>B44*Planilha1!$B$2 + C44 * Planilha1!$B$3 + D44 *Planilha1!$B$4 + E44 * Planilha1!$B$5 + G44 * Planilha1!$B$7 + H44 * Planilha1!$B$8 + I44 * Planilha1!$B$10 + J44 * Planilha1!$B$11</f>
-        <v>7272281350.3501558</v>
-      </c>
-      <c r="L44" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="8">
-        <v>309303</v>
-      </c>
-      <c r="C45" s="7">
-        <v>230</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="E46" s="8">
+        <v>16804</v>
+      </c>
+      <c r="F46" s="7">
         <v>7</v>
       </c>
-      <c r="E45" s="8">
-        <v>12896</v>
-      </c>
-      <c r="F45" s="7">
-        <v>2</v>
-      </c>
-      <c r="G45" s="7">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="H45" s="7">
-        <v>7.6522639999999997</v>
-      </c>
-      <c r="I45" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="J45" s="7">
-        <v>570</v>
-      </c>
-      <c r="K45" s="13">
-        <f>B45*Planilha1!$B$2 + C45 * Planilha1!$B$3 + D45 *Planilha1!$B$4 + E45 * Planilha1!$B$5 + G45 * Planilha1!$B$7 + H45 * Planilha1!$B$8 + I45 * Planilha1!$B$10 + J45 * Planilha1!$B$11</f>
-        <v>38694265134.669121</v>
-      </c>
-      <c r="L45" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="8">
-        <v>294238</v>
-      </c>
-      <c r="C46" s="7">
-        <v>286</v>
-      </c>
-      <c r="D46" s="7">
-        <v>9</v>
-      </c>
-      <c r="E46" s="8">
-        <v>11350</v>
-      </c>
-      <c r="F46" s="7">
-        <v>4</v>
-      </c>
       <c r="G46" s="7">
-        <v>38.700000000000003</v>
+        <v>9.9741099999999996</v>
       </c>
       <c r="H46" s="7">
-        <v>7.6779120000000001</v>
-      </c>
-      <c r="I46" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="J46" s="7">
-        <v>547.5</v>
-      </c>
-      <c r="K46" s="13">
-        <f>B46*Planilha1!$B$2 + C46 * Planilha1!$B$3 + D46 *Planilha1!$B$4 + E46 * Planilha1!$B$5 + G46 * Planilha1!$B$7 + H46 * Planilha1!$B$8 + I46 * Planilha1!$B$10 + J46 * Planilha1!$B$11</f>
-        <v>36804505046.84066</v>
-      </c>
-      <c r="L46" s="16">
-        <v>0</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="I46" s="15">
+        <v>1</v>
+      </c>
+      <c r="J46" s="13">
+        <f>B46*CoefFatorial!$B$2 + C46* CoefFatorial!$B$3 + D46 * CoefFatorial!$B$4 + E46 * CoefFatorial!$B$5 + F46 * CoefFatorial!$B$6 + G46 * CoefFatorial!$B$7 + H46 * CoefFatorial!$B$8</f>
+        <v>54574305955.819572</v>
+      </c>
+      <c r="K46" t="str">
+        <f>IF(J46 &gt;= $N$19, "Maior", "Menor")</f>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J47" s="16"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
-    <sortCondition ref="A2:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J46">
+    <sortCondition ref="G2:G46"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A1E3A8-C70A-4935-9ECD-0B43E4E0F9C7}">
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7152ACDA-C7C1-4C88-9956-25CB7AF9D34F}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B2" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B3" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B4" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B5" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="B6" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="B7" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="8">
-        <v>17353</v>
-      </c>
-      <c r="C2" s="7">
-        <v>125</v>
-      </c>
-      <c r="D2" s="7">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>5</v>
-      </c>
-      <c r="G2" s="7">
-        <v>17.3</v>
-      </c>
-      <c r="H2" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I2" s="7">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J2" s="7">
-        <v>566.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="8">
-        <v>16274</v>
-      </c>
-      <c r="C3" s="7">
-        <v>150</v>
-      </c>
-      <c r="D3" s="7">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7">
-        <v>21.4</v>
-      </c>
-      <c r="H3" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I3" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J3" s="7">
-        <v>522.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8">
-        <v>18724</v>
-      </c>
-      <c r="C4" s="7">
-        <v>150</v>
-      </c>
-      <c r="D4" s="7">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7">
-        <v>17.3</v>
-      </c>
-      <c r="H4" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I4" s="7">
-        <v>11.3</v>
-      </c>
-      <c r="J4" s="7">
-        <v>492.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="8">
-        <v>23585</v>
-      </c>
-      <c r="C5" s="7">
-        <v>180</v>
-      </c>
-      <c r="D5" s="7">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7">
-        <v>23.9</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J5" s="7">
-        <v>459.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="8">
-        <v>22414</v>
-      </c>
-      <c r="C6" s="7">
-        <v>180</v>
-      </c>
-      <c r="D6" s="7">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7">
-        <v>23.9</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="J6" s="7">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="8">
-        <v>18439</v>
-      </c>
-      <c r="C7" s="7">
-        <v>150</v>
-      </c>
-      <c r="D7" s="7">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7">
-        <v>21.4</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J7" s="7">
-        <v>522.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="8">
-        <v>26010</v>
-      </c>
-      <c r="C8" s="7">
-        <v>180</v>
-      </c>
-      <c r="D8" s="7">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>5</v>
-      </c>
-      <c r="G8" s="7">
-        <v>23.9</v>
-      </c>
-      <c r="H8" s="7">
-        <v>7.2037200000000006</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="J8" s="7">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="8">
-        <v>161489</v>
-      </c>
-      <c r="C9" s="7">
-        <v>150</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7">
-        <v>6031</v>
-      </c>
-      <c r="F9" s="7">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="H9" s="7">
-        <v>8.0029760000000003</v>
-      </c>
-      <c r="I9" s="7">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J9" s="7">
-        <v>647.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="8">
-        <v>45036</v>
-      </c>
-      <c r="C10" s="7">
-        <v>200</v>
-      </c>
-      <c r="D10" s="7">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1884</v>
-      </c>
-      <c r="F10" s="7">
-        <v>5</v>
-      </c>
-      <c r="G10" s="7">
-        <v>28.5</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7.5647899999999986</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7.2</v>
-      </c>
-      <c r="J10" s="7">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8">
-        <v>17015</v>
-      </c>
-      <c r="C11" s="7">
-        <v>150</v>
-      </c>
-      <c r="D11" s="7">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7">
-        <v>21.4</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7.7621070000000003</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8.6</v>
-      </c>
-      <c r="J11" s="7">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="8">
-        <v>45994</v>
-      </c>
-      <c r="C12" s="7">
-        <v>163</v>
-      </c>
-      <c r="D12" s="7">
-        <v>17</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1868</v>
-      </c>
-      <c r="F12" s="7">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>8.1263920000000009</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="J12" s="7">
-        <v>717.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8">
-        <v>18129</v>
-      </c>
-      <c r="C13" s="7">
-        <v>125</v>
-      </c>
-      <c r="D13" s="7">
-        <v>26</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>5</v>
-      </c>
-      <c r="G13" s="7">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7.7621070000000003</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="J13" s="7">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="8">
-        <v>22858</v>
-      </c>
-      <c r="C14" s="7">
-        <v>130</v>
-      </c>
-      <c r="D14" s="7">
-        <v>22</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>5</v>
-      </c>
-      <c r="G14" s="7">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8.059056</v>
-      </c>
-      <c r="I14" s="7">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J14" s="7">
-        <v>682.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="8">
-        <v>30210</v>
-      </c>
-      <c r="C15" s="7">
-        <v>165</v>
-      </c>
-      <c r="D15" s="7">
-        <v>24</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>5</v>
-      </c>
-      <c r="G15" s="7">
-        <v>23.4</v>
-      </c>
-      <c r="H15" s="7">
-        <v>7.7934600000000005</v>
-      </c>
-      <c r="I15" s="7">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="J15" s="7">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="8">
-        <v>21283</v>
-      </c>
-      <c r="C16" s="7">
-        <v>193</v>
-      </c>
-      <c r="D16" s="7">
-        <v>27</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>5</v>
-      </c>
-      <c r="G16" s="7">
-        <v>28.5</v>
-      </c>
-      <c r="H16" s="7">
-        <v>7.711850000000001</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J16" s="7">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="8">
-        <v>57914</v>
-      </c>
-      <c r="C17" s="7">
-        <v>269</v>
-      </c>
-      <c r="D17" s="7">
-        <v>16</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2439</v>
-      </c>
-      <c r="F17" s="7">
-        <v>5</v>
-      </c>
-      <c r="G17" s="7">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="H17" s="7">
-        <v>8.5876780000000004</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="J17" s="7">
-        <v>611.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8">
-        <v>106177</v>
-      </c>
-      <c r="C18" s="7">
-        <v>190</v>
-      </c>
-      <c r="D18" s="7">
-        <v>9</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4463</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5</v>
-      </c>
-      <c r="G18" s="7">
-        <v>32.6</v>
-      </c>
-      <c r="H18" s="7">
-        <v>8.705292</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7.3</v>
-      </c>
-      <c r="J18" s="7">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="8">
-        <v>206956</v>
-      </c>
-      <c r="C19" s="7">
-        <v>252</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6</v>
-      </c>
-      <c r="E19" s="7">
-        <v>8707</v>
-      </c>
-      <c r="F19" s="7">
-        <v>5</v>
-      </c>
-      <c r="G19" s="7">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="H19" s="7">
-        <v>8.7229189999999992</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6</v>
-      </c>
-      <c r="J19" s="7">
-        <v>614.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="8">
-        <v>108031</v>
-      </c>
-      <c r="C20" s="7">
-        <v>170</v>
-      </c>
-      <c r="D20" s="7">
-        <v>9</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4268</v>
-      </c>
-      <c r="F20" s="7">
-        <v>4</v>
-      </c>
-      <c r="G20" s="7">
-        <v>32.4</v>
-      </c>
-      <c r="H20" s="7">
-        <v>8.7360480000000003</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="J20" s="7">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="8">
-        <v>26324</v>
-      </c>
-      <c r="C21" s="7">
-        <v>165</v>
-      </c>
-      <c r="D21" s="7">
-        <v>26</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>5</v>
-      </c>
-      <c r="G21" s="7">
-        <v>23.45</v>
-      </c>
-      <c r="H21" s="7">
-        <v>8.6807600000000011</v>
-      </c>
-      <c r="I21" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J21" s="7">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="8">
-        <v>30386</v>
-      </c>
-      <c r="C22" s="7">
-        <v>165</v>
-      </c>
-      <c r="D22" s="7">
-        <v>24</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>5</v>
-      </c>
-      <c r="G22" s="7">
-        <v>23.45</v>
-      </c>
-      <c r="H22" s="7">
-        <v>8.6807600000000011</v>
-      </c>
-      <c r="I22" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J22" s="7">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="8">
-        <v>27219</v>
-      </c>
-      <c r="C23" s="7">
-        <v>165</v>
-      </c>
-      <c r="D23" s="7">
-        <v>24</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>5</v>
-      </c>
-      <c r="G23" s="7">
-        <v>23.9</v>
-      </c>
-      <c r="H23" s="7">
-        <v>8.6807600000000011</v>
-      </c>
-      <c r="I23" s="7">
-        <v>9.4</v>
-      </c>
-      <c r="J23" s="7">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8">
-        <v>25246</v>
-      </c>
-      <c r="C24" s="7">
-        <v>174</v>
-      </c>
-      <c r="D24" s="7">
-        <v>26</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>5</v>
-      </c>
-      <c r="G24" s="7">
-        <v>29</v>
-      </c>
-      <c r="H24" s="7">
-        <v>8.6855560000000001</v>
-      </c>
-      <c r="I24" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J24" s="7">
-        <v>612.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="8">
-        <v>47111</v>
-      </c>
-      <c r="C25" s="7">
-        <v>218</v>
-      </c>
-      <c r="D25" s="7">
-        <v>19</v>
-      </c>
-      <c r="E25" s="7">
-        <v>2888</v>
-      </c>
-      <c r="F25" s="7">
-        <v>5</v>
-      </c>
-      <c r="G25" s="7">
-        <v>29.57</v>
-      </c>
-      <c r="H25" s="7">
-        <v>9.1507149999999999</v>
-      </c>
-      <c r="I25" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J25" s="7">
-        <v>675.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="8">
-        <v>140955</v>
-      </c>
-      <c r="C26" s="7">
-        <v>300</v>
-      </c>
-      <c r="D26" s="7">
-        <v>11</v>
-      </c>
-      <c r="E26" s="7">
-        <v>5682</v>
-      </c>
-      <c r="F26" s="7">
-        <v>5</v>
-      </c>
-      <c r="G26" s="7">
-        <v>44.9</v>
-      </c>
-      <c r="H26" s="7">
-        <v>9.2313240000000008</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="J26" s="7">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="8">
-        <v>101248</v>
-      </c>
-      <c r="C27" s="7">
-        <v>300</v>
-      </c>
-      <c r="D27" s="7">
-        <v>13</v>
-      </c>
-      <c r="E27" s="7">
-        <v>4102</v>
-      </c>
-      <c r="F27" s="7">
-        <v>5</v>
-      </c>
-      <c r="G27" s="7">
-        <v>44.9</v>
-      </c>
-      <c r="H27" s="7">
-        <v>9.2107100000000006</v>
-      </c>
-      <c r="I27" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="J27" s="7">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="8">
-        <v>137038</v>
-      </c>
-      <c r="C28" s="7">
-        <v>300</v>
-      </c>
-      <c r="D28" s="7">
-        <v>11</v>
-      </c>
-      <c r="E28" s="7">
-        <v>5495</v>
-      </c>
-      <c r="F28" s="7">
-        <v>5</v>
-      </c>
-      <c r="G28" s="7">
-        <v>44.9</v>
-      </c>
-      <c r="H28" s="7">
-        <v>9.2107100000000006</v>
-      </c>
-      <c r="I28" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="J28" s="7">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="8">
-        <v>349389</v>
-      </c>
-      <c r="C29" s="7">
-        <v>340</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4</v>
-      </c>
-      <c r="E29" s="7">
-        <v>19213</v>
-      </c>
-      <c r="F29" s="7">
-        <v>5</v>
-      </c>
-      <c r="G29" s="7">
-        <v>51</v>
-      </c>
-      <c r="H29" s="7">
-        <v>9.3149540000000002</v>
-      </c>
-      <c r="I29" s="7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J29" s="7">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="8">
-        <v>185115</v>
-      </c>
-      <c r="C30" s="7">
-        <v>252</v>
-      </c>
-      <c r="D30" s="7">
-        <v>9</v>
-      </c>
-      <c r="E30" s="7">
-        <v>8076</v>
-      </c>
-      <c r="F30" s="7">
-        <v>4</v>
-      </c>
-      <c r="G30" s="7">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="H30" s="7">
-        <v>9.5053140000000003</v>
-      </c>
-      <c r="I30" s="7">
-        <v>6.9</v>
-      </c>
-      <c r="J30" s="7">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="8">
-        <v>105890</v>
-      </c>
-      <c r="C31" s="7">
-        <v>150</v>
-      </c>
-      <c r="D31" s="7">
-        <v>8</v>
-      </c>
-      <c r="E31" s="7">
-        <v>4206</v>
-      </c>
-      <c r="F31" s="7">
-        <v>5</v>
-      </c>
-      <c r="G31" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="H31" s="7">
-        <v>8.0344280000000001</v>
-      </c>
-      <c r="I31" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="J31" s="7">
-        <v>707.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="8">
-        <v>238154</v>
-      </c>
-      <c r="C32" s="7">
-        <v>150</v>
-      </c>
-      <c r="D32" s="7">
-        <v>3</v>
-      </c>
-      <c r="E32" s="7">
-        <v>10158</v>
-      </c>
-      <c r="F32" s="7">
-        <v>5</v>
-      </c>
-      <c r="G32" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="H32" s="7">
-        <v>8.2909159999999993</v>
-      </c>
-      <c r="I32" s="7">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="J32" s="7">
-        <v>588.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="8">
-        <v>129711</v>
-      </c>
-      <c r="C33" s="7">
-        <v>150</v>
-      </c>
-      <c r="D33" s="7">
-        <v>6</v>
-      </c>
-      <c r="E33" s="7">
-        <v>5067</v>
-      </c>
-      <c r="F33" s="7">
-        <v>5</v>
-      </c>
-      <c r="G33" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="H33" s="7">
-        <v>8.0344280000000001</v>
-      </c>
-      <c r="I33" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="J33" s="7">
-        <v>707.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="8">
-        <v>153608</v>
-      </c>
-      <c r="C34" s="7">
-        <v>272</v>
-      </c>
-      <c r="D34" s="7">
-        <v>9</v>
-      </c>
-      <c r="E34" s="7">
-        <v>6308</v>
-      </c>
-      <c r="F34" s="7">
-        <v>5</v>
-      </c>
-      <c r="G34" s="7">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H34" s="7">
-        <v>8.7858419999999988</v>
-      </c>
-      <c r="I34" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="J34" s="7">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="8">
-        <v>518430</v>
-      </c>
-      <c r="C35" s="7">
-        <v>340</v>
-      </c>
-      <c r="D35" s="7">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7">
-        <v>20969</v>
-      </c>
-      <c r="F35" s="7">
-        <v>7</v>
-      </c>
-      <c r="G35" s="7">
-        <v>51</v>
-      </c>
-      <c r="H35" s="7">
-        <v>9.9741099999999996</v>
-      </c>
-      <c r="I35" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="J35" s="7">
-        <v>646.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="8">
-        <v>436302</v>
-      </c>
-      <c r="C36" s="7">
-        <v>340</v>
-      </c>
-      <c r="D36" s="7">
-        <v>5</v>
-      </c>
-      <c r="E36" s="7">
-        <v>16804</v>
-      </c>
-      <c r="F36" s="7">
-        <v>7</v>
-      </c>
-      <c r="G36" s="7">
-        <v>51</v>
-      </c>
-      <c r="H36" s="7">
-        <v>9.9741099999999996</v>
-      </c>
-      <c r="I36" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="J36" s="7">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="8">
-        <v>211467</v>
-      </c>
-      <c r="C37" s="7">
-        <v>354</v>
-      </c>
-      <c r="D37" s="7">
-        <v>9</v>
-      </c>
-      <c r="E37" s="7">
-        <v>8714</v>
-      </c>
-      <c r="F37" s="7">
-        <v>5</v>
-      </c>
-      <c r="G37" s="7">
-        <v>47.9</v>
-      </c>
-      <c r="H37" s="7">
-        <v>8.8746840000000002</v>
-      </c>
-      <c r="I37" s="7">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J37" s="7">
-        <v>626.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="8">
-        <v>322651</v>
-      </c>
-      <c r="C38" s="7">
-        <v>354</v>
-      </c>
-      <c r="D38" s="7">
-        <v>6</v>
-      </c>
-      <c r="E38" s="7">
-        <v>13412</v>
-      </c>
-      <c r="F38" s="7">
-        <v>5</v>
-      </c>
-      <c r="G38" s="7">
-        <v>51</v>
-      </c>
-      <c r="H38" s="7">
-        <v>8.8422030000000014</v>
-      </c>
-      <c r="I38" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="J38" s="7">
-        <v>570.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="8">
-        <v>245979</v>
-      </c>
-      <c r="C39" s="7">
-        <v>333</v>
-      </c>
-      <c r="D39" s="7">
-        <v>12</v>
-      </c>
-      <c r="E39" s="7">
-        <v>9949</v>
-      </c>
-      <c r="F39" s="7">
-        <v>4</v>
-      </c>
-      <c r="G39" s="7">
-        <v>44.9</v>
-      </c>
-      <c r="H39" s="7">
-        <v>8.6025600000000004</v>
-      </c>
-      <c r="I39" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="J39" s="7">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="8">
-        <v>45220</v>
-      </c>
-      <c r="C40" s="7">
-        <v>300</v>
-      </c>
-      <c r="D40" s="7">
-        <v>24</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>5</v>
-      </c>
-      <c r="G40" s="7">
-        <v>42.8</v>
-      </c>
-      <c r="H40" s="7">
-        <v>8.9410500000000006</v>
-      </c>
-      <c r="I40" s="7">
-        <v>5.7</v>
-      </c>
-      <c r="J40" s="7">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="8">
-        <v>58239</v>
-      </c>
-      <c r="C41" s="7">
-        <v>225</v>
-      </c>
-      <c r="D41" s="7">
-        <v>26</v>
-      </c>
-      <c r="E41" s="7">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>4</v>
-      </c>
-      <c r="G41" s="7">
-        <v>23.96</v>
-      </c>
-      <c r="H41" s="7">
-        <v>7.128324000000001</v>
-      </c>
-      <c r="I41" s="7">
-        <v>7.4</v>
-      </c>
-      <c r="J41" s="7">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="8">
-        <v>309303</v>
-      </c>
-      <c r="C42" s="7">
-        <v>230</v>
-      </c>
-      <c r="D42" s="7">
-        <v>7</v>
-      </c>
-      <c r="E42" s="7">
-        <v>12896</v>
-      </c>
-      <c r="F42" s="7">
-        <v>2</v>
-      </c>
-      <c r="G42" s="7">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="H42" s="7">
-        <v>7.6522639999999997</v>
-      </c>
-      <c r="I42" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="J42" s="7">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="8">
-        <v>294238</v>
-      </c>
-      <c r="C43" s="7">
-        <v>286</v>
-      </c>
-      <c r="D43" s="7">
-        <v>9</v>
-      </c>
-      <c r="E43" s="7">
-        <v>11350</v>
-      </c>
-      <c r="F43" s="7">
-        <v>4</v>
-      </c>
-      <c r="G43" s="7">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="H43" s="7">
-        <v>7.6779120000000001</v>
-      </c>
-      <c r="I43" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="J43" s="7">
-        <v>547.5</v>
+      <c r="B8" s="19" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K43">
-    <sortCondition ref="A2:A43"/>
-  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7152ACDA-C7C1-4C88-9956-25CB7AF9D34F}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>124869.3297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>51.649799999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>-7.0555000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>5566.8419000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>0.11020000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>8.2326999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>52.988799999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>-1.0457000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>8.2803000000000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>